--- a/Datos Medidos.xlsx
+++ b/Datos Medidos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelogaticaruedlinger/Desktop/Grain Scanner/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Gatica R\Desktop\Grain Teller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489BD796-18DD-CE42-B712-174CC3F9D9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB537B0C-E19D-4413-8CEA-D23DD0A4D65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{5E89AC0B-6221-3445-A3EE-C3137B7C8DAE}"/>
+    <workbookView xWindow="11895" yWindow="0" windowWidth="12210" windowHeight="12885" xr2:uid="{5E89AC0B-6221-3445-A3EE-C3137B7C8DAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Calán" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>Corn</t>
   </si>
@@ -114,6 +114,18 @@
   <si>
     <t>Romi</t>
   </si>
+  <si>
+    <t>Trial 2: Cabin</t>
+  </si>
+  <si>
+    <t>No external light</t>
+  </si>
+  <si>
+    <t>Inceding Light</t>
+  </si>
+  <si>
+    <t>Inceding Light/White</t>
+  </si>
 </sst>
 </file>
 
@@ -188,15 +200,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -204,22 +222,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -240,7 +276,1426 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>Perfiles Normalizados</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Calán'!$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Corn/White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Datos Calán'!$A$15:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>415nm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445nm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480nm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515nm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555nm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>590nm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630nm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680nm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>NIR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Clear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos Calán'!$G$15:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.47238776321017084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2586874853251937</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34459994718774756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48898376153083783</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7356495468277946</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85698022768124626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90300959390195823</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9130887081520711</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80682593856655294</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62165027137042062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E30-4EB6-841F-1DA6685AA562}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Calán'!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soy/White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Datos Calán'!$A$15:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>415nm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445nm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480nm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515nm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555nm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>590nm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630nm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680nm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>NIR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Clear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos Calán'!$H$15:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.36074692093762417</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24548015966189246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33086876155268025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38880841655866433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45840111550081336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50994607549430793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54402681035615719</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55324380556080954</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57542662116040955</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43915366350067842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E30-4EB6-841F-1DA6685AA562}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Calán'!$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wheat/White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Datos Calán'!$A$15:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>415nm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445nm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480nm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515nm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555nm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>590nm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630nm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680nm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>NIR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Clear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos Calán'!$I$15:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.40365514501390543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29232214134773421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36977378751870432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42258138293817182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50075528700906347</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56524865188735773</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61203837560783281</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6618119916777</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62798634812286691</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49243130936227952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2E30-4EB6-841F-1DA6685AA562}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Calán'!$J$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inceding Light/White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Datos Calán'!$A$15:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>415nm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445nm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480nm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515nm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555nm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>590nm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630nm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680nm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>NIR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Clear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos Calán'!$J$15:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12673818037346046</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.884245127964311E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6386761728721061E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3949836090569487E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10155705321868463</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21024565608148593</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35832566697332108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44164932854170608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30443686006825937</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18947167571234735</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2E30-4EB6-841F-1DA6685AA562}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1233416320"/>
+        <c:axId val="1052497679"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1233416320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1052497679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1052497679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1233416320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>Perfiles Normalizados</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Calán'!$O$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Corn/White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Datos Calán'!$A$15:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>415nm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445nm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480nm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515nm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555nm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>590nm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630nm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680nm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>NIR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Clear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos Calán'!$O$15:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.41236162361623618</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24541353383458647</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33261842596046254</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49005575434800697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76535505485121202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93517294986397204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0500161342368506</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0911547468924518</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84945164506480564</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60724182031333263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C30-40B8-BF7D-1E61BAD3CDF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Calán'!$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soy/White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Datos Calán'!$A$15:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>415nm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445nm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480nm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515nm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555nm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>590nm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630nm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680nm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>NIR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Clear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos Calán'!$P$15:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.33994464944649444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24878195488721805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33504289444237223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39901805775151866</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48058858306509888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55616012436844153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6237495966440787</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66798774995496302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58923230309072783</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43429606735585635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C30-40B8-BF7D-1E61BAD3CDF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Calán'!$Q$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wheat/White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Datos Calán'!$A$15:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>415nm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445nm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480nm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515nm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555nm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>590nm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630nm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680nm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>NIR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Clear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos Calán'!$Q$15:$Q$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.37638376383763839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29251127819548872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36786646773591941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42964134143296995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52065952834526708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6117372716673144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69850489405184468</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75103584939650514</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63808574277168495</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48374720238729618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9C30-40B8-BF7D-1E61BAD3CDF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1233414880"/>
+        <c:axId val="1235541407"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1233414880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1235541407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1235541407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1233414880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -307,7 +1762,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-CL"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -995,7 +2450,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-CL"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="557824832"/>
@@ -1068,7 +2523,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-CL"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="557831520"/>
@@ -1110,7 +2565,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-CL"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1147,16 +2602,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-CL"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1218,7 +2673,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-CL"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1892,7 +3347,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-CL"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="559775936"/>
@@ -1951,7 +3406,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-CL"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="555570208"/>
@@ -1993,7 +3448,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-CL"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2030,7 +3485,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-CL"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -2116,6 +3571,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2620,6 +4155,555 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3122,11 +5206,514 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FF988407-C56F-1345-88E3-422296485664}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3137,7 +5724,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{50550217-A8C4-EF4A-B223-102F7C2190DC}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3146,9 +5733,86 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69820C81-222C-E4C0-25DA-6F499F30FACD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>117662</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>118781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>229721</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C7892A-D55A-5FE1-FEC1-70774DF97D97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8676718" cy="6291832"/>
+    <xdr:ext cx="9308523" cy="6083011"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
@@ -3177,11 +5841,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8678333" cy="6289524"/>
+    <xdr:ext cx="9308523" cy="6083011"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
@@ -3211,9 +5875,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3251,7 +5915,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3357,7 +6021,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3499,7 +6163,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3507,590 +6171,1256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467FFBF0-3EA6-2F46-80E4-5E44213FE419}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1234</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>958</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1034</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>1347</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>1607</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>2604</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <f t="shared" ref="H2:H11" si="0">B2/G2</f>
         <v>0.47388632872503839</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <f t="shared" ref="I2:I11" si="1">C2/G2</f>
         <v>0.36789554531490015</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <f t="shared" ref="J2:J11" si="2">D2/G2</f>
         <v>0.39708141321044549</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <f>E2/G2</f>
         <v>0.51728110599078336</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <f>F2/G2</f>
         <v>0.61712749615975426</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>837</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>833</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <v>853</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>5594</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>4311</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>4680</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>5902</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>7879</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>16821</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <f t="shared" si="0"/>
         <v>0.33256048986386066</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <f t="shared" si="1"/>
         <v>0.25628678437667202</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <f t="shared" si="2"/>
         <v>0.27822364901016589</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <f t="shared" ref="K3:K11" si="3">E3/G3</f>
         <v>0.35087093514059808</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <f t="shared" ref="L3:L11" si="4">F3/G3</f>
         <v>0.46840259199809764</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>4315</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>3975</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>4021</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>4647</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>3962</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>4287</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>5520</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>6476</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>11709</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <f t="shared" si="0"/>
         <v>0.39687419933384577</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <f t="shared" si="1"/>
         <v>0.33837219233068577</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <f t="shared" si="2"/>
         <v>0.36612861901101718</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <f t="shared" si="3"/>
         <v>0.47143223161670511</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <f t="shared" si="4"/>
         <v>0.55307882825177213</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>4319</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>4023</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>4377</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>6557</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>5138</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>5385</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>7667</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>9313</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>13438</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>0.48794463461824678</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <f t="shared" si="1"/>
         <v>0.38234856377437121</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <f t="shared" si="2"/>
         <v>0.40072927518976037</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <f t="shared" si="3"/>
         <v>0.5705462122339634</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <f t="shared" si="4"/>
         <v>0.69303467777943151</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>4529</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>4430</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>4452</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>11257</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>7439</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>7946</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>11417</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>14202</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>17541</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>0.64175360583775154</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <f t="shared" si="1"/>
         <v>0.42409212701670373</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <f t="shared" si="2"/>
         <v>0.45299583832164642</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <f t="shared" si="3"/>
         <v>0.65087509264010035</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <f t="shared" si="4"/>
         <v>0.80964597229348378</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <v>5881</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>6021</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <v>5877</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>11486</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>7315</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>8064</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>11462</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>13350</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>15197</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
         <v>0.75580706718431268</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <f t="shared" si="1"/>
         <v>0.48134500230308613</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <f t="shared" si="2"/>
         <v>0.53063104560110552</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <f t="shared" si="3"/>
         <v>0.75422780812002366</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <f t="shared" si="4"/>
         <v>0.87846285451075867</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>6481</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>6708</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <v>6237</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>9618</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>6177</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>6766</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>9538</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>10538</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>11330</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
         <v>0.84889673433362756</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <f t="shared" si="1"/>
         <v>0.54518976169461608</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <f t="shared" si="2"/>
         <v>0.59717563989408651</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <f t="shared" si="3"/>
         <v>0.84183583406884377</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <f t="shared" si="4"/>
         <v>0.93009708737864083</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>6840</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>6978</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <v>6019</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>6360</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>4094</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>4586</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>6482</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>6869</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>7221</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
         <v>0.8807644370585791</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <f t="shared" si="1"/>
         <v>0.56695748511286526</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <f t="shared" si="2"/>
         <v>0.63509209250796284</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <f t="shared" si="3"/>
         <v>0.89765960393297328</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <f t="shared" si="4"/>
         <v>0.95125328901814155</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <v>4566</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>4710</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="1">
         <v>4004</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>5220</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>4678</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>4982</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>6355</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>6756</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>6192</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>0.84302325581395354</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <f t="shared" si="1"/>
         <v>0.75549095607235139</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <f t="shared" si="2"/>
         <v>0.80458656330749356</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <f t="shared" si="3"/>
         <v>1.0263242894056848</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <f t="shared" si="4"/>
         <v>1.0910852713178294</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>1278</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>1354</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <v>1180</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>27338</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>20305</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>22233</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>28463</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>32542</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>42098</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <f t="shared" si="0"/>
         <v>0.64938951969214687</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <f t="shared" si="1"/>
         <v>0.48232695139911635</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <f t="shared" si="2"/>
         <v>0.52812485153689015</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <f t="shared" si="3"/>
         <v>0.67611287947170884</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <f t="shared" si="4"/>
         <v>0.77300584350800516</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>16802</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>17131</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="1">
         <v>16712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1189</v>
+      </c>
+      <c r="C15" s="1">
+        <v>908</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1016</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2517</v>
+      </c>
+      <c r="F15" s="1">
+        <v>319</v>
+      </c>
+      <c r="G15" s="1">
+        <f>B15/E15</f>
+        <v>0.47238776321017084</v>
+      </c>
+      <c r="H15" s="1">
+        <f>C15/E15</f>
+        <v>0.36074692093762417</v>
+      </c>
+      <c r="I15" s="1">
+        <f>D15/E15</f>
+        <v>0.40365514501390543</v>
+      </c>
+      <c r="J15" s="1">
+        <f>F15/E15</f>
+        <v>0.12673818037346046</v>
+      </c>
+      <c r="K15" s="12">
+        <v>894</v>
+      </c>
+      <c r="L15" s="12">
+        <v>737</v>
+      </c>
+      <c r="M15" s="12">
+        <v>816</v>
+      </c>
+      <c r="N15" s="12">
+        <v>2168</v>
+      </c>
+      <c r="O15" s="12">
+        <f>K15/N15</f>
+        <v>0.41236162361623618</v>
+      </c>
+      <c r="P15" s="12">
+        <f>L15/N15</f>
+        <v>0.33994464944649444</v>
+      </c>
+      <c r="Q15" s="12">
+        <f>M15/N15</f>
+        <v>0.37638376383763839</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4407</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4182</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4980</v>
+      </c>
+      <c r="E16" s="1">
+        <v>17036</v>
+      </c>
+      <c r="F16" s="1">
+        <v>321</v>
+      </c>
+      <c r="G16" s="1">
+        <f>B16/E16</f>
+        <v>0.2586874853251937</v>
+      </c>
+      <c r="H16" s="1">
+        <f>C16/E16</f>
+        <v>0.24548015966189246</v>
+      </c>
+      <c r="I16" s="1">
+        <f>D16/E16</f>
+        <v>0.29232214134773421</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" ref="J16:J24" si="5">F16/E16</f>
+        <v>1.884245127964311E-2</v>
+      </c>
+      <c r="K16" s="12">
+        <v>4080</v>
+      </c>
+      <c r="L16" s="12">
+        <v>4136</v>
+      </c>
+      <c r="M16" s="12">
+        <v>4863</v>
+      </c>
+      <c r="N16" s="12">
+        <v>16625</v>
+      </c>
+      <c r="O16" s="12">
+        <f t="shared" ref="O16:O24" si="6">K16/N16</f>
+        <v>0.24541353383458647</v>
+      </c>
+      <c r="P16" s="12">
+        <f t="shared" ref="P16:P24" si="7">L16/N16</f>
+        <v>0.24878195488721805</v>
+      </c>
+      <c r="Q16" s="12">
+        <f t="shared" ref="Q16:Q23" si="8">M16/N16</f>
+        <v>0.29251127819548872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3915</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3759</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4201</v>
+      </c>
+      <c r="E17" s="1">
+        <v>11361</v>
+      </c>
+      <c r="F17" s="1">
+        <v>527</v>
+      </c>
+      <c r="G17" s="1">
+        <f>B17/E17</f>
+        <v>0.34459994718774756</v>
+      </c>
+      <c r="H17" s="1">
+        <f>C17/E17</f>
+        <v>0.33086876155268025</v>
+      </c>
+      <c r="I17" s="1">
+        <f>D17/E17</f>
+        <v>0.36977378751870432</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="5"/>
+        <v>4.6386761728721061E-2</v>
+      </c>
+      <c r="K17" s="12">
+        <v>3567</v>
+      </c>
+      <c r="L17" s="12">
+        <v>3593</v>
+      </c>
+      <c r="M17" s="12">
+        <v>3945</v>
+      </c>
+      <c r="N17" s="12">
+        <v>10724</v>
+      </c>
+      <c r="O17" s="12">
+        <f t="shared" si="6"/>
+        <v>0.33261842596046254</v>
+      </c>
+      <c r="P17" s="12">
+        <f t="shared" si="7"/>
+        <v>0.33504289444237223</v>
+      </c>
+      <c r="Q17" s="12">
+        <f t="shared" si="8"/>
+        <v>0.36786646773591941</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6414</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5100</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5543</v>
+      </c>
+      <c r="E18" s="1">
+        <v>13117</v>
+      </c>
+      <c r="F18" s="1">
+        <v>970</v>
+      </c>
+      <c r="G18" s="1">
+        <f>B18/E18</f>
+        <v>0.48898376153083783</v>
+      </c>
+      <c r="H18" s="1">
+        <f>C18/E18</f>
+        <v>0.38880841655866433</v>
+      </c>
+      <c r="I18" s="1">
+        <f>D18/E18</f>
+        <v>0.42258138293817182</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="5"/>
+        <v>7.3949836090569487E-2</v>
+      </c>
+      <c r="K18" s="12">
+        <v>5889</v>
+      </c>
+      <c r="L18" s="12">
+        <v>4795</v>
+      </c>
+      <c r="M18" s="12">
+        <v>5163</v>
+      </c>
+      <c r="N18" s="12">
+        <v>12017</v>
+      </c>
+      <c r="O18" s="12">
+        <f t="shared" si="6"/>
+        <v>0.49005575434800697</v>
+      </c>
+      <c r="P18" s="12">
+        <f t="shared" si="7"/>
+        <v>0.39901805775151866</v>
+      </c>
+      <c r="Q18" s="12">
+        <f t="shared" si="8"/>
+        <v>0.42964134143296995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>12662</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7890</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8619</v>
+      </c>
+      <c r="E19" s="1">
+        <v>17212</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1748</v>
+      </c>
+      <c r="G19" s="1">
+        <f>B19/E19</f>
+        <v>0.7356495468277946</v>
+      </c>
+      <c r="H19" s="1">
+        <f>C19/E19</f>
+        <v>0.45840111550081336</v>
+      </c>
+      <c r="I19" s="1">
+        <f>D19/E19</f>
+        <v>0.50075528700906347</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="5"/>
+        <v>0.10155705321868463</v>
+      </c>
+      <c r="K19" s="12">
+        <v>11651</v>
+      </c>
+      <c r="L19" s="12">
+        <v>7316</v>
+      </c>
+      <c r="M19" s="12">
+        <v>7926</v>
+      </c>
+      <c r="N19" s="12">
+        <v>15223</v>
+      </c>
+      <c r="O19" s="12">
+        <f t="shared" si="6"/>
+        <v>0.76535505485121202</v>
+      </c>
+      <c r="P19" s="12">
+        <f t="shared" si="7"/>
+        <v>0.48058858306509888</v>
+      </c>
+      <c r="Q19" s="12">
+        <f t="shared" si="8"/>
+        <v>0.52065952834526708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <v>14303</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8511</v>
+      </c>
+      <c r="D20" s="1">
+        <v>9434</v>
+      </c>
+      <c r="E20" s="1">
+        <v>16690</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3509</v>
+      </c>
+      <c r="G20" s="1">
+        <f>B20/E20</f>
+        <v>0.85698022768124626</v>
+      </c>
+      <c r="H20" s="1">
+        <f>C20/E20</f>
+        <v>0.50994607549430793</v>
+      </c>
+      <c r="I20" s="1">
+        <f>D20/E20</f>
+        <v>0.56524865188735773</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="5"/>
+        <v>0.21024565608148593</v>
+      </c>
+      <c r="K20" s="12">
+        <v>12031</v>
+      </c>
+      <c r="L20" s="12">
+        <v>7155</v>
+      </c>
+      <c r="M20" s="12">
+        <v>7870</v>
+      </c>
+      <c r="N20" s="12">
+        <v>12865</v>
+      </c>
+      <c r="O20" s="12">
+        <f t="shared" si="6"/>
+        <v>0.93517294986397204</v>
+      </c>
+      <c r="P20" s="12">
+        <f t="shared" si="7"/>
+        <v>0.55616012436844153</v>
+      </c>
+      <c r="Q20" s="12">
+        <f t="shared" si="8"/>
+        <v>0.6117372716673144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <v>13742</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8279</v>
+      </c>
+      <c r="D21" s="1">
+        <v>9314</v>
+      </c>
+      <c r="E21" s="1">
+        <v>15218</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5453</v>
+      </c>
+      <c r="G21" s="1">
+        <f>B21/E21</f>
+        <v>0.90300959390195823</v>
+      </c>
+      <c r="H21" s="1">
+        <f>C21/E21</f>
+        <v>0.54402681035615719</v>
+      </c>
+      <c r="I21" s="1">
+        <f>D21/E21</f>
+        <v>0.61203837560783281</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="5"/>
+        <v>0.35832566697332108</v>
+      </c>
+      <c r="K21" s="12">
+        <v>9762</v>
+      </c>
+      <c r="L21" s="12">
+        <v>5799</v>
+      </c>
+      <c r="M21" s="12">
+        <v>6494</v>
+      </c>
+      <c r="N21" s="12">
+        <v>9297</v>
+      </c>
+      <c r="O21" s="12">
+        <f t="shared" si="6"/>
+        <v>1.0500161342368506</v>
+      </c>
+      <c r="P21" s="12">
+        <f t="shared" si="7"/>
+        <v>0.6237495966440787</v>
+      </c>
+      <c r="Q21" s="12">
+        <f t="shared" si="8"/>
+        <v>0.69850489405184468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9655</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5850</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6998</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10574</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4670</v>
+      </c>
+      <c r="G22" s="1">
+        <f>B22/E22</f>
+        <v>0.9130887081520711</v>
+      </c>
+      <c r="H22" s="1">
+        <f>C22/E22</f>
+        <v>0.55324380556080954</v>
+      </c>
+      <c r="I22" s="1">
+        <f>D22/E22</f>
+        <v>0.6618119916777</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="5"/>
+        <v>0.44164932854170608</v>
+      </c>
+      <c r="K22" s="12">
+        <v>6057</v>
+      </c>
+      <c r="L22" s="12">
+        <v>3708</v>
+      </c>
+      <c r="M22" s="12">
+        <v>4169</v>
+      </c>
+      <c r="N22" s="12">
+        <v>5551</v>
+      </c>
+      <c r="O22" s="12">
+        <f t="shared" si="6"/>
+        <v>1.0911547468924518</v>
+      </c>
+      <c r="P22" s="12">
+        <f t="shared" si="7"/>
+        <v>0.66798774995496302</v>
+      </c>
+      <c r="Q22" s="12">
+        <f t="shared" si="8"/>
+        <v>0.75103584939650514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2364</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1686</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1840</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2930</v>
+      </c>
+      <c r="F23" s="1">
+        <v>892</v>
+      </c>
+      <c r="G23" s="1">
+        <f>B23/E23</f>
+        <v>0.80682593856655294</v>
+      </c>
+      <c r="H23" s="1">
+        <f>C23/E23</f>
+        <v>0.57542662116040955</v>
+      </c>
+      <c r="I23" s="1">
+        <f>D23/E23</f>
+        <v>0.62798634812286691</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="5"/>
+        <v>0.30443686006825937</v>
+      </c>
+      <c r="K23" s="12">
+        <v>1704</v>
+      </c>
+      <c r="L23" s="12">
+        <v>1182</v>
+      </c>
+      <c r="M23" s="12">
+        <v>1280</v>
+      </c>
+      <c r="N23" s="12">
+        <v>2006</v>
+      </c>
+      <c r="O23" s="12">
+        <f t="shared" si="6"/>
+        <v>0.84945164506480564</v>
+      </c>
+      <c r="P23" s="12">
+        <f t="shared" si="7"/>
+        <v>0.58923230309072783</v>
+      </c>
+      <c r="Q23" s="12">
+        <f t="shared" si="8"/>
+        <v>0.63808574277168495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1">
+        <v>29322</v>
+      </c>
+      <c r="C24" s="1">
+        <v>20714</v>
+      </c>
+      <c r="D24" s="1">
+        <v>23227</v>
+      </c>
+      <c r="E24" s="1">
+        <v>47168</v>
+      </c>
+      <c r="F24" s="1">
+        <v>8937</v>
+      </c>
+      <c r="G24" s="1">
+        <f>B24/E24</f>
+        <v>0.62165027137042062</v>
+      </c>
+      <c r="H24" s="1">
+        <f>C24/E24</f>
+        <v>0.43915366350067842</v>
+      </c>
+      <c r="I24" s="1">
+        <f>D24/E24</f>
+        <v>0.49243130936227952</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="5"/>
+        <v>0.18947167571234735</v>
+      </c>
+      <c r="K24" s="12">
+        <v>22791</v>
+      </c>
+      <c r="L24" s="12">
+        <v>16300</v>
+      </c>
+      <c r="M24" s="12">
+        <v>18156</v>
+      </c>
+      <c r="N24" s="12">
+        <v>37532</v>
+      </c>
+      <c r="O24" s="12">
+        <f t="shared" si="6"/>
+        <v>0.60724182031333263</v>
+      </c>
+      <c r="P24" s="12">
+        <f t="shared" si="7"/>
+        <v>0.43429606735585635</v>
+      </c>
+      <c r="Q24" s="12">
+        <f>M24/N24</f>
+        <v>0.48374720238729618</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Datos Medidos.xlsx
+++ b/Datos Medidos.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Gatica R\Desktop\Grain Teller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelogaticaruedlinger/Desktop/GrainTeller/GrainTeller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB537B0C-E19D-4413-8CEA-D23DD0A4D65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD7D856-76DD-7A41-911D-55E19F3AFFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="0" windowWidth="12210" windowHeight="12885" xr2:uid="{5E89AC0B-6221-3445-A3EE-C3137B7C8DAE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{5E89AC0B-6221-3445-A3EE-C3137B7C8DAE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos Calán" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos Granos" sheetId="1" r:id="rId1"/>
     <sheet name="Perfiles Normalizados" sheetId="2" r:id="rId2"/>
     <sheet name="Perfiles Brutos" sheetId="3" r:id="rId3"/>
+    <sheet name="Datos Concentración" sheetId="4" r:id="rId4"/>
+    <sheet name="Mezclas normalizadas" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="47">
   <si>
     <t>Corn</t>
   </si>
@@ -126,12 +128,66 @@
   <si>
     <t>Inceding Light/White</t>
   </si>
+  <si>
+    <t>Measuring 1</t>
+  </si>
+  <si>
+    <t>Measuring 2</t>
+  </si>
+  <si>
+    <t>Measuring 3</t>
+  </si>
+  <si>
+    <t>Muestra 80S/20M</t>
+  </si>
+  <si>
+    <t>Muestra 50S/50M</t>
+  </si>
+  <si>
+    <t>Muestra 30S/70M</t>
+  </si>
+  <si>
+    <t>Normalized 1</t>
+  </si>
+  <si>
+    <t>Normalized 2</t>
+  </si>
+  <si>
+    <t>Normalized 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>80S/20M</t>
+  </si>
+  <si>
+    <t>50S/50M</t>
+  </si>
+  <si>
+    <t>30S/70M</t>
+  </si>
+  <si>
+    <t>Muestra 10S/90M</t>
+  </si>
+  <si>
+    <t>10S/90M</t>
+  </si>
+  <si>
+    <t>Soja Pura</t>
+  </si>
+  <si>
+    <t>Trigo Puro</t>
+  </si>
+  <si>
+    <t>White Paper</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,8 +255,19 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +277,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -255,7 +328,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -276,7 +350,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -338,7 +412,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
+          <a:endParaRPr lang="fr-CL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -353,7 +427,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Calán'!$G$14</c:f>
+              <c:f>'Datos Granos'!$G$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -388,7 +462,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos Calán'!$A$15:$A$24</c:f>
+              <c:f>'Datos Granos'!$A$15:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -426,7 +500,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos Calán'!$G$15:$G$24</c:f>
+              <c:f>'Datos Granos'!$G$15:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -475,7 +549,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Calán'!$H$14</c:f>
+              <c:f>'Datos Granos'!$H$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -510,7 +584,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos Calán'!$A$15:$A$24</c:f>
+              <c:f>'Datos Granos'!$A$15:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -548,7 +622,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos Calán'!$H$15:$H$24</c:f>
+              <c:f>'Datos Granos'!$H$15:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -597,7 +671,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Calán'!$I$14</c:f>
+              <c:f>'Datos Granos'!$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -632,7 +706,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos Calán'!$A$15:$A$24</c:f>
+              <c:f>'Datos Granos'!$A$15:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -670,7 +744,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos Calán'!$I$15:$I$24</c:f>
+              <c:f>'Datos Granos'!$I$15:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -719,7 +793,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Calán'!$J$14</c:f>
+              <c:f>'Datos Granos'!$J$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -754,7 +828,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos Calán'!$A$15:$A$24</c:f>
+              <c:f>'Datos Granos'!$A$15:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -792,7 +866,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos Calán'!$J$15:$J$24</c:f>
+              <c:f>'Datos Granos'!$J$15:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -890,7 +964,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="fr-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1052497679"/>
@@ -949,7 +1023,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="fr-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1233416320"/>
@@ -991,7 +1065,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
+          <a:endParaRPr lang="fr-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1028,7 +1102,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CL"/>
+      <a:endParaRPr lang="fr-CL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1042,7 +1116,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1102,7 +1176,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
+          <a:endParaRPr lang="fr-CL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1117,7 +1191,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Calán'!$O$14</c:f>
+              <c:f>'Datos Granos'!$O$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1146,7 +1220,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos Calán'!$A$15:$A$24</c:f>
+              <c:f>'Datos Granos'!$A$15:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1184,7 +1258,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos Calán'!$O$15:$O$24</c:f>
+              <c:f>'Datos Granos'!$O$15:$O$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1233,7 +1307,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Calán'!$P$14</c:f>
+              <c:f>'Datos Granos'!$P$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1262,7 +1336,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos Calán'!$A$15:$A$24</c:f>
+              <c:f>'Datos Granos'!$A$15:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1300,7 +1374,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos Calán'!$P$15:$P$24</c:f>
+              <c:f>'Datos Granos'!$P$15:$P$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1349,7 +1423,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Calán'!$Q$14</c:f>
+              <c:f>'Datos Granos'!$Q$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1378,7 +1452,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos Calán'!$A$15:$A$24</c:f>
+              <c:f>'Datos Granos'!$A$15:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1416,7 +1490,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos Calán'!$Q$15:$Q$24</c:f>
+              <c:f>'Datos Granos'!$Q$15:$Q$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1531,7 +1605,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="fr-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1235541407"/>
@@ -1600,7 +1674,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="fr-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1233414880"/>
@@ -1641,7 +1715,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
+          <a:endParaRPr lang="fr-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1681,7 +1755,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CL"/>
+      <a:endParaRPr lang="fr-CL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1695,7 +1769,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1762,7 +1836,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
+          <a:endParaRPr lang="fr-CL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1777,7 +1851,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Calán'!$H$1</c:f>
+              <c:f>'Datos Granos'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1812,7 +1886,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos Calán'!$A$2:$A$11</c:f>
+              <c:f>'Datos Granos'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1850,7 +1924,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos Calán'!$H$2:$H$11</c:f>
+              <c:f>'Datos Granos'!$H$2:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1899,7 +1973,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Calán'!$I$1</c:f>
+              <c:f>'Datos Granos'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1934,7 +2008,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos Calán'!$A$2:$A$11</c:f>
+              <c:f>'Datos Granos'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1972,7 +2046,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos Calán'!$I$2:$I$11</c:f>
+              <c:f>'Datos Granos'!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2021,7 +2095,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Calán'!$J$1</c:f>
+              <c:f>'Datos Granos'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2056,7 +2130,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos Calán'!$A$2:$A$11</c:f>
+              <c:f>'Datos Granos'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2094,7 +2168,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos Calán'!$J$2:$J$11</c:f>
+              <c:f>'Datos Granos'!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2143,7 +2217,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Calán'!$K$1</c:f>
+              <c:f>'Datos Granos'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2178,7 +2252,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos Calán'!$A$2:$A$11</c:f>
+              <c:f>'Datos Granos'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2216,7 +2290,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos Calán'!$K$2:$K$11</c:f>
+              <c:f>'Datos Granos'!$K$2:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2265,7 +2339,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Calán'!$L$1</c:f>
+              <c:f>'Datos Granos'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2300,7 +2374,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos Calán'!$A$2:$A$11</c:f>
+              <c:f>'Datos Granos'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2338,7 +2412,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos Calán'!$L$2:$L$11</c:f>
+              <c:f>'Datos Granos'!$L$2:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2450,7 +2524,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="fr-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="557824832"/>
@@ -2523,7 +2597,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="fr-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="557831520"/>
@@ -2565,7 +2639,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
+          <a:endParaRPr lang="fr-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2602,7 +2676,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CL"/>
+      <a:endParaRPr lang="fr-CL"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -2611,7 +2685,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2673,7 +2747,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
+          <a:endParaRPr lang="fr-CL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2688,7 +2762,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Calán'!$B$1</c:f>
+              <c:f>'Datos Granos'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2723,7 +2797,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos Calán'!$A$2:$A$11</c:f>
+              <c:f>'Datos Granos'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2761,7 +2835,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos Calán'!$B$2:$B$11</c:f>
+              <c:f>'Datos Granos'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2810,7 +2884,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Calán'!$C$1</c:f>
+              <c:f>'Datos Granos'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2845,7 +2919,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos Calán'!$A$2:$A$11</c:f>
+              <c:f>'Datos Granos'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2883,7 +2957,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos Calán'!$C$2:$C$11</c:f>
+              <c:f>'Datos Granos'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2932,7 +3006,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Calán'!$D$1</c:f>
+              <c:f>'Datos Granos'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2967,7 +3041,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos Calán'!$A$2:$A$11</c:f>
+              <c:f>'Datos Granos'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3005,7 +3079,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos Calán'!$D$2:$D$11</c:f>
+              <c:f>'Datos Granos'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3054,7 +3128,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Calán'!$E$1</c:f>
+              <c:f>'Datos Granos'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3089,7 +3163,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos Calán'!$A$2:$A$11</c:f>
+              <c:f>'Datos Granos'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3127,7 +3201,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos Calán'!$E$2:$E$11</c:f>
+              <c:f>'Datos Granos'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3176,7 +3250,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Calán'!$F$1</c:f>
+              <c:f>'Datos Granos'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3211,7 +3285,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos Calán'!$A$2:$A$11</c:f>
+              <c:f>'Datos Granos'!$A$2:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -3249,7 +3323,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos Calán'!$F$2:$F$11</c:f>
+              <c:f>'Datos Granos'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3347,7 +3421,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="fr-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="559775936"/>
@@ -3406,7 +3480,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
+            <a:endParaRPr lang="fr-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="555570208"/>
@@ -3448,7 +3522,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
+          <a:endParaRPr lang="fr-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3485,7 +3559,1012 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CL"/>
+      <a:endParaRPr lang="fr-CL"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Mezclas Normalizadas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80S/20M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$J$15:$J$24</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>415nm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445nm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480nm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515nm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555nm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>590nm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630nm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680nm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Clear</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>NIR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos Concentración'!$K$15:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.43535825545171342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38434885489732107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52582040193335033</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60625000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7365607564064014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80989319842608198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82699173243141677</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83886255924170616</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61514266723638611</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62734487734487732</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D6D7-4841-B568-AC9FD65CE609}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$L$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50S/50M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$J$15:$J$24</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>415nm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445nm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480nm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515nm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555nm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>590nm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630nm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680nm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Clear</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>NIR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos Concentración'!$L$15:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.47538940809968849</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43266007493168823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56228271008225217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65687499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80825899569008719</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87296233839235526</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87241638481773764</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86448245071776908</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65088069125955472</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59365079365079365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D6D7-4841-B568-AC9FD65CE609}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$M$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30S/70M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$J$15:$J$24</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>415nm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445nm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480nm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515nm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555nm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>590nm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630nm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680nm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Clear</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>NIR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos Concentración'!$M$15:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.49252336448598139</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45057607256542437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57568048842533703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68224999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84501019010390566</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90342889263631265</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88848177376925974</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86510062504292884</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67656554147082559</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58759018759018755</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D6D7-4841-B568-AC9FD65CE609}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$N$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10S/90M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$J$15:$J$24</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>415nm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445nm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480nm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515nm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555nm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>590nm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630nm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680nm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Clear</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>NIR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos Concentración'!$N$15:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.55404984423676007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52145130848756305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64432290341728138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77045833333333336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95853797066586477</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0058085066516771</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97331830139045472</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92059894223504368</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72590561648388174</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56291486291486292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D6D7-4841-B568-AC9FD65CE609}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$O$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soja Pura</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$J$15:$J$24</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>415nm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445nm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480nm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515nm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555nm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>590nm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630nm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680nm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Clear</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>NIR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos Concentración'!$O$15:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.49766355140186919</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47114003211358069</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65136097685067418</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.746</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9000701613711537</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98740865654862287</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98167981961668549</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93509169585823204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72033898305084743</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49047619047619045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D6D7-4841-B568-AC9FD65CE609}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trigo Puro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$J$15:$J$24</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>415nm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445nm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480nm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515nm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555nm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>590nm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630nm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680nm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Clear</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>NIR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos Concentración'!$P$15:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.65794392523364487</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63829967041325109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74128720427372174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1179713340683572</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1417650365373806</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0635569334836528</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96497012157428397</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80693633385557617</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58917748917748913</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D6D7-4841-B568-AC9FD65CE609}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="99168431"/>
+        <c:axId val="122518543"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="99168431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="122518543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="122518543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99168431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-CL"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3651,6 +4730,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -5709,11 +6828,514 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FF988407-C56F-1345-88E3-422296485664}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="135" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5724,7 +7346,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{50550217-A8C4-EF4A-B223-102F7C2190DC}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="135" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EC28A835-A8F8-AF4C-A599-80DA51E82867}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="163" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5812,7 +7445,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9308523" cy="6083011"/>
+    <xdr:ext cx="8680824" cy="6305176"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
@@ -5845,7 +7478,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9308523" cy="6083011"/>
+    <xdr:ext cx="8683037" cy="6293556"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
@@ -5874,8 +7507,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8664049" cy="6279877"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0E6F1D-2F7C-1A50-270C-0B1EAD3DA237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -6173,25 +7839,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467FFBF0-3EA6-2F46-80E4-5E44213FE419}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A23"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -6238,7 +7904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6290,7 +7956,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6342,7 +8008,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -6394,7 +8060,7 @@
         <v>4377</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -6446,7 +8112,7 @@
         <v>4452</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -6498,7 +8164,7 @@
         <v>5877</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -6550,7 +8216,7 @@
         <v>6237</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -6602,7 +8268,7 @@
         <v>6019</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -6654,7 +8320,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -6706,7 +8372,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
@@ -6758,7 +8424,7 @@
         <v>16712</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -6766,7 +8432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -6782,19 +8448,19 @@
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K14" s="12" t="s">
@@ -6819,7 +8485,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -6839,15 +8505,15 @@
         <v>319</v>
       </c>
       <c r="G15" s="1">
-        <f>B15/E15</f>
+        <f t="shared" ref="G15:G24" si="5">B15/E15</f>
         <v>0.47238776321017084</v>
       </c>
       <c r="H15" s="1">
-        <f>C15/E15</f>
+        <f t="shared" ref="H15:H24" si="6">C15/E15</f>
         <v>0.36074692093762417</v>
       </c>
       <c r="I15" s="1">
-        <f>D15/E15</f>
+        <f t="shared" ref="I15:I24" si="7">D15/E15</f>
         <v>0.40365514501390543</v>
       </c>
       <c r="J15" s="1">
@@ -6879,7 +8545,7 @@
         <v>0.37638376383763839</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -6899,19 +8565,19 @@
         <v>321</v>
       </c>
       <c r="G16" s="1">
-        <f>B16/E16</f>
+        <f t="shared" si="5"/>
         <v>0.2586874853251937</v>
       </c>
       <c r="H16" s="1">
-        <f>C16/E16</f>
+        <f t="shared" si="6"/>
         <v>0.24548015966189246</v>
       </c>
       <c r="I16" s="1">
-        <f>D16/E16</f>
+        <f t="shared" si="7"/>
         <v>0.29232214134773421</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" ref="J16:J24" si="5">F16/E16</f>
+        <f t="shared" ref="J16:J24" si="8">F16/E16</f>
         <v>1.884245127964311E-2</v>
       </c>
       <c r="K16" s="12">
@@ -6927,19 +8593,19 @@
         <v>16625</v>
       </c>
       <c r="O16" s="12">
-        <f t="shared" ref="O16:O24" si="6">K16/N16</f>
+        <f t="shared" ref="O16:O24" si="9">K16/N16</f>
         <v>0.24541353383458647</v>
       </c>
       <c r="P16" s="12">
-        <f t="shared" ref="P16:P24" si="7">L16/N16</f>
+        <f t="shared" ref="P16:P24" si="10">L16/N16</f>
         <v>0.24878195488721805</v>
       </c>
       <c r="Q16" s="12">
-        <f t="shared" ref="Q16:Q23" si="8">M16/N16</f>
+        <f t="shared" ref="Q16:Q23" si="11">M16/N16</f>
         <v>0.29251127819548872</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
@@ -6959,19 +8625,19 @@
         <v>527</v>
       </c>
       <c r="G17" s="1">
-        <f>B17/E17</f>
+        <f t="shared" si="5"/>
         <v>0.34459994718774756</v>
       </c>
       <c r="H17" s="1">
-        <f>C17/E17</f>
+        <f t="shared" si="6"/>
         <v>0.33086876155268025</v>
       </c>
       <c r="I17" s="1">
-        <f>D17/E17</f>
+        <f t="shared" si="7"/>
         <v>0.36977378751870432</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.6386761728721061E-2</v>
       </c>
       <c r="K17" s="12">
@@ -6987,19 +8653,19 @@
         <v>10724</v>
       </c>
       <c r="O17" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.33261842596046254</v>
       </c>
       <c r="P17" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.33504289444237223</v>
       </c>
       <c r="Q17" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.36786646773591941</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -7019,19 +8685,19 @@
         <v>970</v>
       </c>
       <c r="G18" s="1">
-        <f>B18/E18</f>
+        <f t="shared" si="5"/>
         <v>0.48898376153083783</v>
       </c>
       <c r="H18" s="1">
-        <f>C18/E18</f>
+        <f t="shared" si="6"/>
         <v>0.38880841655866433</v>
       </c>
       <c r="I18" s="1">
-        <f>D18/E18</f>
+        <f t="shared" si="7"/>
         <v>0.42258138293817182</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.3949836090569487E-2</v>
       </c>
       <c r="K18" s="12">
@@ -7047,19 +8713,19 @@
         <v>12017</v>
       </c>
       <c r="O18" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.49005575434800697</v>
       </c>
       <c r="P18" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.39901805775151866</v>
       </c>
       <c r="Q18" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.42964134143296995</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
@@ -7079,19 +8745,19 @@
         <v>1748</v>
       </c>
       <c r="G19" s="1">
-        <f>B19/E19</f>
+        <f t="shared" si="5"/>
         <v>0.7356495468277946</v>
       </c>
       <c r="H19" s="1">
-        <f>C19/E19</f>
+        <f t="shared" si="6"/>
         <v>0.45840111550081336</v>
       </c>
       <c r="I19" s="1">
-        <f>D19/E19</f>
+        <f t="shared" si="7"/>
         <v>0.50075528700906347</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.10155705321868463</v>
       </c>
       <c r="K19" s="12">
@@ -7107,19 +8773,19 @@
         <v>15223</v>
       </c>
       <c r="O19" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.76535505485121202</v>
       </c>
       <c r="P19" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.48058858306509888</v>
       </c>
       <c r="Q19" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.52065952834526708</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
@@ -7139,19 +8805,19 @@
         <v>3509</v>
       </c>
       <c r="G20" s="1">
-        <f>B20/E20</f>
+        <f t="shared" si="5"/>
         <v>0.85698022768124626</v>
       </c>
       <c r="H20" s="1">
-        <f>C20/E20</f>
+        <f t="shared" si="6"/>
         <v>0.50994607549430793</v>
       </c>
       <c r="I20" s="1">
-        <f>D20/E20</f>
+        <f t="shared" si="7"/>
         <v>0.56524865188735773</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.21024565608148593</v>
       </c>
       <c r="K20" s="12">
@@ -7167,19 +8833,19 @@
         <v>12865</v>
       </c>
       <c r="O20" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.93517294986397204</v>
       </c>
       <c r="P20" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.55616012436844153</v>
       </c>
       <c r="Q20" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.6117372716673144</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>7</v>
       </c>
@@ -7199,19 +8865,19 @@
         <v>5453</v>
       </c>
       <c r="G21" s="1">
-        <f>B21/E21</f>
+        <f t="shared" si="5"/>
         <v>0.90300959390195823</v>
       </c>
       <c r="H21" s="1">
-        <f>C21/E21</f>
+        <f t="shared" si="6"/>
         <v>0.54402681035615719</v>
       </c>
       <c r="I21" s="1">
-        <f>D21/E21</f>
+        <f t="shared" si="7"/>
         <v>0.61203837560783281</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.35832566697332108</v>
       </c>
       <c r="K21" s="12">
@@ -7227,19 +8893,19 @@
         <v>9297</v>
       </c>
       <c r="O21" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0500161342368506</v>
       </c>
       <c r="P21" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.6237495966440787</v>
       </c>
       <c r="Q21" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.69850489405184468</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>8</v>
       </c>
@@ -7259,19 +8925,19 @@
         <v>4670</v>
       </c>
       <c r="G22" s="1">
-        <f>B22/E22</f>
+        <f t="shared" si="5"/>
         <v>0.9130887081520711</v>
       </c>
       <c r="H22" s="1">
-        <f>C22/E22</f>
+        <f t="shared" si="6"/>
         <v>0.55324380556080954</v>
       </c>
       <c r="I22" s="1">
-        <f>D22/E22</f>
+        <f t="shared" si="7"/>
         <v>0.6618119916777</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.44164932854170608</v>
       </c>
       <c r="K22" s="12">
@@ -7287,19 +8953,19 @@
         <v>5551</v>
       </c>
       <c r="O22" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0911547468924518</v>
       </c>
       <c r="P22" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.66798774995496302</v>
       </c>
       <c r="Q22" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.75103584939650514</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>10</v>
       </c>
@@ -7319,19 +8985,19 @@
         <v>892</v>
       </c>
       <c r="G23" s="1">
-        <f>B23/E23</f>
+        <f t="shared" si="5"/>
         <v>0.80682593856655294</v>
       </c>
       <c r="H23" s="1">
-        <f>C23/E23</f>
+        <f t="shared" si="6"/>
         <v>0.57542662116040955</v>
       </c>
       <c r="I23" s="1">
-        <f>D23/E23</f>
+        <f t="shared" si="7"/>
         <v>0.62798634812286691</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.30443686006825937</v>
       </c>
       <c r="K23" s="12">
@@ -7347,19 +9013,19 @@
         <v>2006</v>
       </c>
       <c r="O23" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.84945164506480564</v>
       </c>
       <c r="P23" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.58923230309072783</v>
       </c>
       <c r="Q23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.63808574277168495</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>9</v>
       </c>
@@ -7379,19 +9045,19 @@
         <v>8937</v>
       </c>
       <c r="G24" s="1">
-        <f>B24/E24</f>
+        <f t="shared" si="5"/>
         <v>0.62165027137042062</v>
       </c>
       <c r="H24" s="1">
-        <f>C24/E24</f>
+        <f t="shared" si="6"/>
         <v>0.43915366350067842</v>
       </c>
       <c r="I24" s="1">
-        <f>D24/E24</f>
+        <f t="shared" si="7"/>
         <v>0.49243130936227952</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.18947167571234735</v>
       </c>
       <c r="K24" s="12">
@@ -7407,11 +9073,11 @@
         <v>37532</v>
       </c>
       <c r="O24" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.60724182031333263</v>
       </c>
       <c r="P24" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.43429606735585635</v>
       </c>
       <c r="Q24" s="12">
@@ -7423,4 +9089,1885 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD75285-17D2-5344-9101-BEBFED743F0F}">
+  <dimension ref="A1:P76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="64" workbookViewId="0">
+      <selection sqref="A1:P76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>977</v>
+      </c>
+      <c r="C2" s="1">
+        <v>948</v>
+      </c>
+      <c r="D2" s="1">
+        <v>870</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2:E11" si="0">B2/J2</f>
+        <v>0.45654205607476633</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F11" si="1">C2/J2</f>
+        <v>0.44299065420560746</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G11" si="2">D2/J2</f>
+        <v>0.40654205607476634</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H11" si="3">AVERAGE(E2:G2)</f>
+        <v>0.43535825545171342</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4742</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4558</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4344</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40074368292064566</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38519394912532745</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="2"/>
+        <v>0.36710893264599004</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="3"/>
+        <v>0.38434885489732107</v>
+      </c>
+      <c r="J3" s="1">
+        <v>11833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4181</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4183</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4038</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.53179852454846099</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.53205291274484867</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.51360976850674134</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.52582040193335033</v>
+      </c>
+      <c r="J4" s="1">
+        <v>7862</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5059</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4839</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4652</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.63237500000000002</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60487500000000005</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.58150000000000002</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.60625000000000007</v>
+      </c>
+      <c r="J5" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7728</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7287</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7031</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77458153753633352</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.73037987370953195</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.70472085797333872</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.7365607564064014</v>
+      </c>
+      <c r="J6" s="1">
+        <v>9977</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7557</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7143</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6912</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84957841483979768</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.80303541315345695</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.77706576728499155</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.80989319842608198</v>
+      </c>
+      <c r="J7" s="1">
+        <v>8895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6192</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5833</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5580</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.87260428410372037</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.8220124013528749</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.78635851183765504</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.82699173243141677</v>
+      </c>
+      <c r="J8" s="1">
+        <v>7096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4285</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4115</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3813</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.88295899443643111</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.84792911601071497</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.78569956727797241</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.83886255924170616</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>17891</v>
+      </c>
+      <c r="C10" s="1">
+        <v>17768</v>
+      </c>
+      <c r="D10" s="1">
+        <v>16168</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.63705312633527988</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.63267340834638941</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.57570146702748892</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.61514266723638611</v>
+      </c>
+      <c r="J10" s="1">
+        <v>28084</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2834</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3593</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2268</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61341991341991342</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.77770562770562768</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.49090909090909091</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.62734487734487732</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1052</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D15" s="1">
+        <v>997</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ref="E15:E24" si="4">B15/J2</f>
+        <v>0.49158878504672898</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" ref="F15:F24" si="5">C15/J2</f>
+        <v>0.46869158878504674</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" ref="G15:G24" si="6">D15/J2</f>
+        <v>0.4658878504672897</v>
+      </c>
+      <c r="H15" s="1">
+        <f>AVERAGE(E15:G15)</f>
+        <v>0.47538940809968849</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.43535825545171342</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.47538940809968849</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.49252336448598139</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.55404984423676007</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.49766355140186919</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.65794392523364487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5315</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5099</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4945</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="4"/>
+        <v>0.44916758218541369</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.43091354686047495</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="6"/>
+        <v>0.41789909574917605</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" ref="H16:H24" si="7">AVERAGE(E16:G16)</f>
+        <v>0.43266007493168823</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.38434885489732107</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.43266007493168823</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.45057607256542437</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.52145130848756305</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.47114003211358069</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.63829967041325109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4483</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4438</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4341</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.57021114220300173</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="5"/>
+        <v>0.56448740778427886</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="6"/>
+        <v>0.55214958025947591</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="7"/>
+        <v>0.56228271008225217</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.52582040193335033</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.56228271008225217</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.57568048842533703</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.64432290341728138</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.65136097685067418</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.74128720427372174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5417</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5215</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5133</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="4"/>
+        <v>0.67712499999999998</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="5"/>
+        <v>0.65187499999999998</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="6"/>
+        <v>0.641625</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65687499999999999</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.60625000000000007</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.65687499999999999</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.68224999999999991</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.77045833333333336</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.746</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8275</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8063</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7854</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="4"/>
+        <v>0.82940763756640268</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="5"/>
+        <v>0.80815876515986773</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="6"/>
+        <v>0.78721058434399116</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="7"/>
+        <v>0.80825899569008719</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.7365607564064014</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.80825899569008719</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.84501019010390566</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.95853797066586477</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.9000701613711537</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1.1179713340683572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7927</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7739</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7629</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="4"/>
+        <v>0.89117481731309722</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="5"/>
+        <v>0.87003934794828552</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="6"/>
+        <v>0.85767284991568293</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="7"/>
+        <v>0.87296233839235526</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.80989319842608198</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.87296233839235526</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.90342889263631265</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1.0058085066516771</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.98740865654862287</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1.1417650365373806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6294</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6193</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6085</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="4"/>
+        <v>0.88697857948139802</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="5"/>
+        <v>0.87274520856820748</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="6"/>
+        <v>0.85752536640360766</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="7"/>
+        <v>0.87241638481773764</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.82699173243141677</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.87241638481773764</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.88848177376925974</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.97331830139045472</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.98167981961668549</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1.0635569334836528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4299</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4166</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4121</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="4"/>
+        <v>0.88584380795384299</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="5"/>
+        <v>0.85843807953842988</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="6"/>
+        <v>0.84916546466103437</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="7"/>
+        <v>0.86448245071776908</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.83886255924170616</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.86448245071776908</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.86510062504292884</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.92059894223504368</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.93509169585823204</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.96497012157428397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1">
+        <v>18459</v>
+      </c>
+      <c r="C23" s="1">
+        <v>18394</v>
+      </c>
+      <c r="D23" s="1">
+        <v>17985</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="4"/>
+        <v>0.6572781655034895</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="5"/>
+        <v>0.65496368038740915</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="6"/>
+        <v>0.64040022788776529</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65088069125955472</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.61514266723638611</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.65088069125955472</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.67656554147082559</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.72590561648388174</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.72033898305084743</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.80693633385557617</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2996</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2510</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2722</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="4"/>
+        <v>0.64848484848484844</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="5"/>
+        <v>0.54329004329004327</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="6"/>
+        <v>0.58917748917748913</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="7"/>
+        <v>0.59365079365079365</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.62734487734487732</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.59365079365079365</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.58759018759018755</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.56291486291486292</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0.49047619047619045</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.58917748917748913</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" s="14">
+        <f>AVERAGE(K15:K24)</f>
+        <v>0.6406573303369254</v>
+      </c>
+      <c r="L25" s="14">
+        <f t="shared" ref="L25:P25" si="8">AVERAGE(L15:L24)</f>
+        <v>0.67898588476419264</v>
+      </c>
+      <c r="M25" s="14">
+        <f t="shared" si="8"/>
+        <v>0.69672071360901622</v>
+      </c>
+      <c r="N25" s="14">
+        <f t="shared" si="8"/>
+        <v>0.76373665898167231</v>
+      </c>
+      <c r="O25" s="14">
+        <f t="shared" si="8"/>
+        <v>0.73812300672878561</v>
+      </c>
+      <c r="P25" s="14">
+        <f t="shared" si="8"/>
+        <v>0.86399080486173574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1073</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1060</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1029</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" ref="E28:E37" si="9">B28/J2</f>
+        <v>0.50140186915887852</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" ref="F28:F37" si="10">C28/J2</f>
+        <v>0.49532710280373832</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" ref="G28:G37" si="11">D28/J2</f>
+        <v>0.4808411214953271</v>
+      </c>
+      <c r="H28" s="1">
+        <f>AVERAGE(E28:G28)</f>
+        <v>0.49252336448598139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5455</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5323</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5217</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="9"/>
+        <v>0.4609989013775036</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="10"/>
+        <v>0.4498436575678188</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="11"/>
+        <v>0.4408856587509507</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" ref="H29:H37" si="12">AVERAGE(E29:G29)</f>
+        <v>0.45057607256542437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4590</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4549</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4439</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="9"/>
+        <v>0.58382091070974307</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="10"/>
+        <v>0.57860595268379544</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="11"/>
+        <v>0.5646146018824727</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="12"/>
+        <v>0.57568048842533703</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5580</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5451</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5343</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="9"/>
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="10"/>
+        <v>0.68137499999999995</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="11"/>
+        <v>0.667875</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="12"/>
+        <v>0.68224999999999991</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>8559</v>
+      </c>
+      <c r="C32" s="1">
+        <v>8450</v>
+      </c>
+      <c r="D32" s="1">
+        <v>8283</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="9"/>
+        <v>0.85787310814874207</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="10"/>
+        <v>0.84694798035481611</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="11"/>
+        <v>0.83020948180815879</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="12"/>
+        <v>0.84501019010390566</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1">
+        <v>8173</v>
+      </c>
+      <c r="C33" s="1">
+        <v>8053</v>
+      </c>
+      <c r="D33" s="1">
+        <v>7882</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="9"/>
+        <v>0.91883080382237214</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="10"/>
+        <v>0.90534007869589661</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="11"/>
+        <v>0.88611579539066887</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="12"/>
+        <v>0.90342889263631265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6355</v>
+      </c>
+      <c r="C34" s="1">
+        <v>6337</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6222</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="9"/>
+        <v>0.89557497181510715</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="10"/>
+        <v>0.89303833145434053</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="11"/>
+        <v>0.87683201803833144</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="12"/>
+        <v>0.88848177376925974</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4220</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4251</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4124</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="9"/>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="10"/>
+        <v>0.87595301875128784</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="11"/>
+        <v>0.84978363898619413</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="12"/>
+        <v>0.86510062504292884</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1">
+        <v>19474</v>
+      </c>
+      <c r="C36" s="1">
+        <v>19092</v>
+      </c>
+      <c r="D36" s="1">
+        <v>18436</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="9"/>
+        <v>0.69341974077766699</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="10"/>
+        <v>0.67981768978777957</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="11"/>
+        <v>0.65645919384703033</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="12"/>
+        <v>0.67656554147082559</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2860</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2808</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2476</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="9"/>
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="10"/>
+        <v>0.60779220779220777</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="11"/>
+        <v>0.53593073593073592</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="12"/>
+        <v>0.58759018759018755</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1236</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1178</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1143</v>
+      </c>
+      <c r="E41" s="1">
+        <f>B41/J2</f>
+        <v>0.57757009345794397</v>
+      </c>
+      <c r="F41" s="1">
+        <f>C41/J2</f>
+        <v>0.55046728971962622</v>
+      </c>
+      <c r="G41" s="1">
+        <f>D41/J2</f>
+        <v>0.53411214953271025</v>
+      </c>
+      <c r="H41" s="1">
+        <f>AVERAGE(E41:G41)</f>
+        <v>0.55404984423676007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1">
+        <v>6502</v>
+      </c>
+      <c r="C42" s="1">
+        <v>6099</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5910</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" ref="E42:E50" si="13">B42/J3</f>
+        <v>0.54948026704977604</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" ref="F42:F50" si="14">C42/J3</f>
+        <v>0.51542296966111723</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" ref="G42:G50" si="15">D42/J3</f>
+        <v>0.49945068875179582</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" ref="H42:H50" si="16">AVERAGE(E42:G42)</f>
+        <v>0.52145130848756305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5261</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5023</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4913</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="13"/>
+        <v>0.66916815059781232</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="14"/>
+        <v>0.63889595522767739</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="15"/>
+        <v>0.62490460442635465</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="16"/>
+        <v>0.64432290341728138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1">
+        <v>6443</v>
+      </c>
+      <c r="C44" s="1">
+        <v>6107</v>
+      </c>
+      <c r="D44" s="1">
+        <v>5941</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="13"/>
+        <v>0.80537499999999995</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="14"/>
+        <v>0.76337500000000003</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="15"/>
+        <v>0.74262499999999998</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="16"/>
+        <v>0.77045833333333336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1">
+        <v>9983</v>
+      </c>
+      <c r="C45" s="1">
+        <v>9490</v>
+      </c>
+      <c r="D45" s="1">
+        <v>9217</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="13"/>
+        <v>1.000601383181317</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="14"/>
+        <v>0.95118773178310112</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="15"/>
+        <v>0.92382479703317633</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="16"/>
+        <v>0.95853797066586477</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>9297</v>
+      </c>
+      <c r="C46" s="1">
+        <v>8893</v>
+      </c>
+      <c r="D46" s="1">
+        <v>8650</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="13"/>
+        <v>1.0451939291736931</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="14"/>
+        <v>0.99977515458122546</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="15"/>
+        <v>0.97245643620011246</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="16"/>
+        <v>1.0058085066516771</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1">
+        <v>7113</v>
+      </c>
+      <c r="C47" s="1">
+        <v>6869</v>
+      </c>
+      <c r="D47" s="1">
+        <v>6738</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="13"/>
+        <v>1.0023957158962795</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="14"/>
+        <v>0.96801014656144302</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="15"/>
+        <v>0.94954904171364152</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="16"/>
+        <v>0.97331830139045472</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4549</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4497</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4357</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="13"/>
+        <v>0.93735833505048427</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="14"/>
+        <v>0.92664331341438289</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="15"/>
+        <v>0.89779517824026378</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="16"/>
+        <v>0.92059894223504368</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1">
+        <v>21503</v>
+      </c>
+      <c r="C49" s="1">
+        <v>20290</v>
+      </c>
+      <c r="D49" s="1">
+        <v>19366</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="13"/>
+        <v>0.76566728386269767</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="14"/>
+        <v>0.72247543085030619</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="15"/>
+        <v>0.68957413473864126</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="16"/>
+        <v>0.72590561648388174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2442</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2754</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2606</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="13"/>
+        <v>0.52857142857142858</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="14"/>
+        <v>0.59610389610389614</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="15"/>
+        <v>0.56406926406926405</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="16"/>
+        <v>0.56291486291486292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1065</v>
+      </c>
+      <c r="C54" s="1">
+        <f>B54/J2</f>
+        <v>0.49766355140186919</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="1">
+        <v>5575</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" ref="C55:C63" si="17">B55/J3</f>
+        <v>0.47114003211358069</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1">
+        <v>5121</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="17"/>
+        <v>0.65136097685067418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="1">
+        <v>5968</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="17"/>
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="1">
+        <v>8980</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="17"/>
+        <v>0.9000701613711537</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1">
+        <v>8783</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="17"/>
+        <v>0.98740865654862287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="1">
+        <v>6966</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="17"/>
+        <v>0.98167981961668549</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4538</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="17"/>
+        <v>0.93509169585823204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="1">
+        <v>20230</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="17"/>
+        <v>0.72033898305084743</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2266</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="17"/>
+        <v>0.49047619047619045</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1408</v>
+      </c>
+      <c r="C67" s="1">
+        <f>B67/J2</f>
+        <v>0.65794392523364487</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="1">
+        <v>7553</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" ref="C68:C76" si="18">B68/J3</f>
+        <v>0.63829967041325109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="1">
+        <v>5828</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="18"/>
+        <v>0.74128720427372174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="1">
+        <v>7344</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="18"/>
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="1">
+        <v>11154</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="18"/>
+        <v>1.1179713340683572</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="1">
+        <v>10156</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="18"/>
+        <v>1.1417650365373806</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="1">
+        <v>7547</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="18"/>
+        <v>1.0635569334836528</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
+        <v>4683</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="18"/>
+        <v>0.96497012157428397</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="1">
+        <v>22662</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="18"/>
+        <v>0.80693633385557617</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2722</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="18"/>
+        <v>0.58917748917748913</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Datos Medidos.xlsx
+++ b/Datos Medidos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelogaticaruedlinger/Desktop/GrainTeller/GrainTeller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Gatica R\Desktop\Grain Teller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD7D856-76DD-7A41-911D-55E19F3AFFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D237AFB1-3D4A-43FE-BC4B-02CD9D6C2734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{5E89AC0B-6221-3445-A3EE-C3137B7C8DAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="2" activeTab="5" xr2:uid="{5E89AC0B-6221-3445-A3EE-C3137B7C8DAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Granos" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Perfiles Brutos" sheetId="3" r:id="rId3"/>
     <sheet name="Datos Concentración" sheetId="4" r:id="rId4"/>
     <sheet name="Mezclas normalizadas" sheetId="5" r:id="rId5"/>
+    <sheet name="Mezclas Normalizadas II" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="49">
   <si>
     <t>Corn</t>
   </si>
@@ -182,6 +183,12 @@
   <si>
     <t>White Paper</t>
   </si>
+  <si>
+    <t>Medidas con hardware terminado</t>
+  </si>
+  <si>
+    <t>Maíz Puro</t>
+  </si>
 </sst>
 </file>
 
@@ -267,7 +274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +290,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -330,6 +343,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,7 +376,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -412,7 +438,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-CL"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -964,7 +990,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-CL"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1052497679"/>
@@ -1023,7 +1049,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-CL"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1233416320"/>
@@ -1065,7 +1091,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-CL"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1102,7 +1128,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-CL"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1116,7 +1142,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1176,7 +1202,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-CL"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1605,7 +1631,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-CL"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1235541407"/>
@@ -1674,7 +1700,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-CL"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1233414880"/>
@@ -1715,7 +1741,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-CL"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1755,7 +1781,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-CL"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1769,7 +1795,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1836,7 +1862,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-CL"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2524,7 +2550,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-CL"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="557824832"/>
@@ -2597,7 +2623,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-CL"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="557831520"/>
@@ -2639,7 +2665,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-CL"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2676,7 +2702,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-CL"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -2685,7 +2711,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2747,7 +2773,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-CL"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3421,7 +3447,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-CL"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="559775936"/>
@@ -3480,7 +3506,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-CL"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="555570208"/>
@@ -3522,7 +3548,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-CL"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3559,7 +3585,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-CL"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3568,7 +3594,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3630,7 +3656,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-CL"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4426,7 +4452,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-CL"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="122518543"/>
@@ -4485,7 +4511,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-CL"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="99168431"/>
@@ -4527,7 +4553,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-CL"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4564,7 +4590,995 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-CL"/>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$K$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80S/20M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$J$41:$J$50</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>415nm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445nm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480nm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515nm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555nm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>590nm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630nm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680nm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Clear</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>NIR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos Concentración'!$K$41:$K$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.43154761904761907</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32553715308863024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44597591888466415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58186929023190448</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72125234453902753</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82435163354664875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88978370915784633</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88909988606152679</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59043671181690793</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79487179487179482</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8244-45D8-B946-4D2C6A3D39EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$L$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50S/50M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$J$41:$J$50</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>415nm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445nm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480nm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515nm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555nm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>590nm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630nm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680nm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Clear</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>NIR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos Concentración'!$L$41:$L$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.51488095238095233</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40107430617726053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50998098859315588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67252283907238231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82152647525609579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91815426069383632</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96364473078693047</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95594379035320931</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66726996730499766</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85897435897435892</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8244-45D8-B946-4D2C6A3D39EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$M$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30S/70M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$J$41:$J$50</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>415nm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445nm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480nm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515nm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555nm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>590nm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630nm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680nm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Clear</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>NIR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos Concentración'!$M$41:$M$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.53125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40376007162041183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51853612167300378</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69026704146170059</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86423315538883283</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97036039070394076</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0062126092959043</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0140524116976832</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70113264829518918</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8244-45D8-B946-4D2C6A3D39EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$N$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10S/90M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$J$41:$J$50</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>415nm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445nm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480nm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515nm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555nm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>590nm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630nm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680nm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Clear</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>NIR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos Concentración'!$N$41:$N$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5602678571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43296777081468218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53279467680608361</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73664792691496839</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91545231568316265</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0198720107780397</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0448688449148642</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0144322066084315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73954927603923404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94871794871794868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8244-45D8-B946-4D2C6A3D39EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$O$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soja Pura</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$J$41:$J$50</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>415nm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445nm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480nm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515nm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555nm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>590nm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630nm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680nm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Clear</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>NIR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos Concentración'!$O$41:$O$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.42336309523809523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32072515666965085</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45373891001267425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57343640196767398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69614774202856733</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80229033344560463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86562356189599632</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88074439802506643</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56941849602989258</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75854700854700852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8244-45D8-B946-4D2C6A3D39EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$P$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maíz Puro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Datos Concentración'!$J$41:$J$50</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>415nm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445nm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480nm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515nm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>555nm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>590nm</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>630nm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>680nm</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Clear</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>NIR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Datos Concentración'!$P$41:$P$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.62351190476190477</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58602661596958172</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80920590302178497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99437310633386233</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0650050522061301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0752416014726185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0129130269654387</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75227697337692667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92094017094017089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8244-45D8-B946-4D2C6A3D39EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1154637919"/>
+        <c:axId val="1581207903"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1154637919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1581207903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1581207903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1154637919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -4770,6 +5784,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -7331,6 +8385,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{FF988407-C56F-1345-88E3-422296485664}">
   <sheetPr/>
@@ -7346,7 +8921,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{50550217-A8C4-EF4A-B223-102F7C2190DC}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="89" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7358,6 +8933,17 @@
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="163" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5CA67C79-845E-41FE-B913-B2B2AB58E842}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7478,7 +9064,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8683037" cy="6293556"/>
+    <xdr:ext cx="9310955" cy="6089579"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
@@ -7511,7 +9097,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8664049" cy="6279877"/>
+    <xdr:ext cx="9302945" cy="6077301"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
@@ -7540,8 +9126,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9321657" cy="6089579"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC7FCCF-DED8-81B2-8E81-4A358BD42CB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -7843,21 +9462,21 @@
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -7904,7 +9523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7956,7 +9575,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -8008,7 +9627,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -8060,7 +9679,7 @@
         <v>4377</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -8112,7 +9731,7 @@
         <v>4452</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -8164,7 +9783,7 @@
         <v>5877</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -8216,7 +9835,7 @@
         <v>6237</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -8268,7 +9887,7 @@
         <v>6019</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -8320,7 +9939,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -8372,7 +9991,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
@@ -8424,7 +10043,7 @@
         <v>16712</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -8432,7 +10051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -8485,7 +10104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -8545,7 +10164,7 @@
         <v>0.37638376383763839</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -8605,7 +10224,7 @@
         <v>0.29251127819548872</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
@@ -8665,7 +10284,7 @@
         <v>0.36786646773591941</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -8725,7 +10344,7 @@
         <v>0.42964134143296995</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
@@ -8785,7 +10404,7 @@
         <v>0.52065952834526708</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
@@ -8845,7 +10464,7 @@
         <v>0.6117372716673144</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>7</v>
       </c>
@@ -8905,7 +10524,7 @@
         <v>0.69850489405184468</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>8</v>
       </c>
@@ -8965,7 +10584,7 @@
         <v>0.75103584939650514</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>10</v>
       </c>
@@ -9025,7 +10644,7 @@
         <v>0.63808574277168495</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>9</v>
       </c>
@@ -9093,21 +10712,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD75285-17D2-5344-9101-BEBFED743F0F}">
-  <dimension ref="A1:P76"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="64" workbookViewId="0">
-      <selection sqref="A1:P76"/>
+    <sheetView topLeftCell="F26" zoomScale="92" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -9136,7 +10756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -9151,25 +10771,25 @@
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2:E11" si="0">B2/J2</f>
-        <v>0.45654205607476633</v>
+        <v>0.72693452380952384</v>
       </c>
       <c r="F2" s="1">
         <f t="shared" ref="F2:F11" si="1">C2/J2</f>
-        <v>0.44299065420560746</v>
+        <v>0.7053571428571429</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:G11" si="2">D2/J2</f>
-        <v>0.40654205607476634</v>
+        <v>0.6473214285714286</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2:H11" si="3">AVERAGE(E2:G2)</f>
-        <v>0.43535825545171342</v>
+        <v>0.69320436507936511</v>
       </c>
       <c r="J2" s="1">
-        <v>2140</v>
+        <v>1344</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9184,25 +10804,25 @@
       </c>
       <c r="E3" s="1">
         <f t="shared" si="0"/>
-        <v>0.40074368292064566</v>
+        <v>0.53066248880931066</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" si="1"/>
-        <v>0.38519394912532745</v>
+        <v>0.51007162041181742</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" si="2"/>
-        <v>0.36710893264599004</v>
+        <v>0.48612354521038498</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="3"/>
-        <v>0.38434885489732107</v>
+        <v>0.508952551477171</v>
       </c>
       <c r="J3" s="1">
-        <v>11833</v>
+        <v>8936</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -9217,25 +10837,25 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.53179852454846099</v>
+        <v>0.66238910012674268</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="1"/>
-        <v>0.53205291274484867</v>
+        <v>0.6627059569074778</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="2"/>
-        <v>0.51360976850674134</v>
+        <v>0.63973384030418246</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="3"/>
-        <v>0.52582040193335033</v>
+        <v>0.65494296577946765</v>
       </c>
       <c r="J4" s="1">
-        <v>7862</v>
+        <v>6312</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -9250,25 +10870,25 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0.63237500000000002</v>
+        <v>0.88879128601546031</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>0.60487500000000005</v>
+        <v>0.85014054813773721</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="2"/>
-        <v>0.58150000000000002</v>
+        <v>0.8172874209416725</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="3"/>
-        <v>0.60625000000000007</v>
+        <v>0.85207308503162338</v>
       </c>
       <c r="J5" s="1">
-        <v>8000</v>
+        <v>5692</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -9283,25 +10903,25 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.77458153753633352</v>
+        <v>1.1149906218438899</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>0.73037987370953195</v>
+        <v>1.0513634396191025</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>0.70472085797333872</v>
+        <v>1.014427932477276</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="3"/>
-        <v>0.7365607564064014</v>
+        <v>1.0602606646467561</v>
       </c>
       <c r="J6" s="1">
-        <v>9977</v>
+        <v>6931</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -9316,25 +10936,25 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>0.84957841483979768</v>
+        <v>1.2726507241495453</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>0.80303541315345695</v>
+        <v>1.2029302795554058</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="2"/>
-        <v>0.77706576728499155</v>
+        <v>1.1640282923543281</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="3"/>
-        <v>0.80989319842608198</v>
+        <v>1.2132030986864264</v>
       </c>
       <c r="J7" s="1">
-        <v>8895</v>
+        <v>5938</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -9349,25 +10969,25 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>0.87260428410372037</v>
+        <v>1.4247583985273815</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>0.8220124013528749</v>
+        <v>1.3421537045559135</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="2"/>
-        <v>0.78635851183765504</v>
+        <v>1.2839392544868844</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="3"/>
-        <v>0.82699173243141677</v>
+        <v>1.3502837858567265</v>
       </c>
       <c r="J8" s="1">
-        <v>7096</v>
+        <v>4346</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -9382,25 +11002,25 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>0.88295899443643111</v>
+        <v>1.6274211925560198</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>0.84792911601071497</v>
+        <v>1.5628560577288264</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="2"/>
-        <v>0.78569956727797241</v>
+        <v>1.4481579946828713</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="3"/>
-        <v>0.83886255924170616</v>
+        <v>1.5461450816559059</v>
       </c>
       <c r="J9" s="1">
-        <v>4853</v>
+        <v>2633</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
@@ -9415,25 +11035,25 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>0.63705312633527988</v>
+        <v>1.0445469406819243</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>0.63267340834638941</v>
+        <v>1.0373657169546942</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="2"/>
-        <v>0.57570146702748892</v>
+        <v>0.94395142456795889</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="3"/>
-        <v>0.61514266723638611</v>
+        <v>1.0086213607348591</v>
       </c>
       <c r="J10" s="1">
-        <v>28084</v>
+        <v>17128</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
@@ -9448,25 +11068,25 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>0.61341991341991342</v>
+        <v>3.0277777777777777</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>0.77770562770562768</v>
+        <v>3.8386752136752138</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="2"/>
-        <v>0.49090909090909091</v>
+        <v>2.4230769230769229</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="3"/>
-        <v>0.62734487734487732</v>
+        <v>3.0965099715099718</v>
       </c>
       <c r="J11" s="1">
-        <v>4620</v>
+        <v>936</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -9513,7 +11133,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -9528,19 +11148,19 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" ref="E15:E24" si="4">B15/J2</f>
-        <v>0.49158878504672898</v>
+        <v>0.78273809523809523</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ref="F15:F24" si="5">C15/J2</f>
-        <v>0.46869158878504674</v>
+        <v>0.74627976190476186</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ref="G15:G24" si="6">D15/J2</f>
-        <v>0.4658878504672897</v>
+        <v>0.74181547619047616</v>
       </c>
       <c r="H15" s="1">
         <f>AVERAGE(E15:G15)</f>
-        <v>0.47538940809968849</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>1</v>
@@ -9564,7 +11184,7 @@
         <v>0.65794392523364487</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -9579,19 +11199,19 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="4"/>
-        <v>0.44916758218541369</v>
+        <v>0.59478513876454786</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="5"/>
-        <v>0.43091354686047495</v>
+        <v>0.57061324977618622</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="6"/>
-        <v>0.41789909574917605</v>
+        <v>0.553379588182632</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" ref="H16:H24" si="7">AVERAGE(E16:G16)</f>
-        <v>0.43266007493168823</v>
+        <v>0.57292599224112195</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>2</v>
@@ -9615,7 +11235,7 @@
         <v>0.63829967041325109</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
@@ -9630,19 +11250,19 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" si="4"/>
-        <v>0.57021114220300173</v>
+        <v>0.71023447401774398</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="5"/>
-        <v>0.56448740778427886</v>
+        <v>0.70310519645120406</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="6"/>
-        <v>0.55214958025947591</v>
+        <v>0.68773764258555137</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="7"/>
-        <v>0.56228271008225217</v>
+        <v>0.70035910435149973</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>3</v>
@@ -9666,7 +11286,7 @@
         <v>0.74128720427372174</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -9681,19 +11301,19 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="4"/>
-        <v>0.67712499999999998</v>
+        <v>0.95168657765284614</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="5"/>
-        <v>0.65187499999999998</v>
+        <v>0.91619817287420946</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="6"/>
-        <v>0.641625</v>
+        <v>0.90179198875614897</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="7"/>
-        <v>0.65687499999999999</v>
+        <v>0.92322557976106834</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>4</v>
@@ -9717,7 +11337,7 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
@@ -9732,19 +11352,19 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="4"/>
-        <v>0.82940763756640268</v>
+        <v>1.1939114124945895</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="5"/>
-        <v>0.80815876515986773</v>
+        <v>1.1633241956427645</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="6"/>
-        <v>0.78721058434399116</v>
+        <v>1.1331698167652575</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="7"/>
-        <v>0.80825899569008719</v>
+        <v>1.1634684749675372</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>5</v>
@@ -9768,7 +11388,7 @@
         <v>1.1179713340683572</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
@@ -9783,19 +11403,19 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="4"/>
-        <v>0.89117481731309722</v>
+        <v>1.3349612664196699</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="5"/>
-        <v>0.87003934794828552</v>
+        <v>1.3033007746716065</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="6"/>
-        <v>0.85767284991568293</v>
+        <v>1.2847760188615696</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="7"/>
-        <v>0.87296233839235526</v>
+        <v>1.3076793533176152</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>6</v>
@@ -9819,7 +11439,7 @@
         <v>1.1417650365373806</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>7</v>
       </c>
@@ -9834,19 +11454,19 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" si="4"/>
-        <v>0.88697857948139802</v>
+        <v>1.4482282558674644</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="5"/>
-        <v>0.87274520856820748</v>
+        <v>1.4249884951679705</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="6"/>
-        <v>0.85752536640360766</v>
+        <v>1.4001380579843534</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="7"/>
-        <v>0.87241638481773764</v>
+        <v>1.4244516030065961</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>7</v>
@@ -9870,7 +11490,7 @@
         <v>1.0635569334836528</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>8</v>
       </c>
@@ -9885,19 +11505,19 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="4"/>
-        <v>0.88584380795384299</v>
+        <v>1.6327383213064945</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="5"/>
-        <v>0.85843807953842988</v>
+        <v>1.5822255981769844</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="6"/>
-        <v>0.84916546466103437</v>
+        <v>1.5651348271933156</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="7"/>
-        <v>0.86448245071776908</v>
+        <v>1.5933662488922646</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>8</v>
@@ -9921,7 +11541,7 @@
         <v>0.96497012157428397</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>9</v>
       </c>
@@ -9936,19 +11556,19 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="4"/>
-        <v>0.6572781655034895</v>
+        <v>1.0777090144792154</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="5"/>
-        <v>0.65496368038740915</v>
+        <v>1.0739140588510041</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="6"/>
-        <v>0.64040022788776529</v>
+        <v>1.0500350303596451</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="7"/>
-        <v>0.65088069125955472</v>
+        <v>1.0672193678966215</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>9</v>
@@ -9972,7 +11592,7 @@
         <v>0.80693633385557617</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>10</v>
       </c>
@@ -9987,19 +11607,19 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" si="4"/>
-        <v>0.64848484848484844</v>
+        <v>3.200854700854701</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="5"/>
-        <v>0.54329004329004327</v>
+        <v>2.6816239316239314</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="6"/>
-        <v>0.58917748917748913</v>
+        <v>2.908119658119658</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="7"/>
-        <v>0.59365079365079365</v>
+        <v>2.9301994301994299</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>10</v>
@@ -10023,7 +11643,7 @@
         <v>0.58917748917748913</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J25" s="14" t="s">
         <v>38</v>
       </c>
@@ -10052,7 +11672,7 @@
         <v>0.86399080486173574</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -10077,8 +11697,29 @@
       <c r="H27" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="J27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
@@ -10093,22 +11734,43 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" ref="E28:E37" si="9">B28/J2</f>
-        <v>0.50140186915887852</v>
+        <v>0.79836309523809523</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" ref="F28:F37" si="10">C28/J2</f>
-        <v>0.49532710280373832</v>
+        <v>0.78869047619047616</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" ref="G28:G37" si="11">D28/J2</f>
-        <v>0.4808411214953271</v>
+        <v>0.765625</v>
       </c>
       <c r="H28" s="1">
         <f>AVERAGE(E28:G28)</f>
-        <v>0.49252336448598139</v>
+        <v>0.78422619047619035</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="15">
+        <v>580</v>
+      </c>
+      <c r="L28" s="15">
+        <v>692</v>
+      </c>
+      <c r="M28" s="15">
+        <v>714</v>
+      </c>
+      <c r="N28" s="15">
+        <v>753</v>
+      </c>
+      <c r="O28" s="15">
+        <v>569</v>
+      </c>
+      <c r="P28" s="15">
+        <v>838</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -10123,22 +11785,43 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" si="9"/>
-        <v>0.4609989013775036</v>
+        <v>0.61045210384959714</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="10"/>
-        <v>0.4498436575678188</v>
+        <v>0.59568039391226502</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="11"/>
-        <v>0.4408856587509507</v>
+        <v>0.5838182632050134</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" ref="H29:H37" si="12">AVERAGE(E29:G29)</f>
-        <v>0.45057607256542437</v>
+        <v>0.59665025365562518</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="15">
+        <v>2909</v>
+      </c>
+      <c r="L29" s="15">
+        <v>3584</v>
+      </c>
+      <c r="M29" s="18">
+        <v>3608</v>
+      </c>
+      <c r="N29" s="15">
+        <v>3869</v>
+      </c>
+      <c r="O29" s="15">
+        <v>2866</v>
+      </c>
+      <c r="P29" s="15">
+        <v>4468</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>3</v>
       </c>
@@ -10153,22 +11836,43 @@
       </c>
       <c r="E30" s="1">
         <f t="shared" si="9"/>
-        <v>0.58382091070974307</v>
+        <v>0.72718631178707227</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="10"/>
-        <v>0.57860595268379544</v>
+        <v>0.72069074778200248</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="11"/>
-        <v>0.5646146018824727</v>
+        <v>0.70326362484157157</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="12"/>
-        <v>0.57568048842533703</v>
+        <v>0.71704689480354877</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="15">
+        <v>2815</v>
+      </c>
+      <c r="L30" s="15">
+        <v>3219</v>
+      </c>
+      <c r="M30" s="15">
+        <v>3273</v>
+      </c>
+      <c r="N30" s="15">
+        <v>3363</v>
+      </c>
+      <c r="O30" s="15">
+        <v>2864</v>
+      </c>
+      <c r="P30" s="15">
+        <v>3699</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
@@ -10183,22 +11887,43 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" si="9"/>
-        <v>0.69750000000000001</v>
+        <v>0.98032326071679554</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="10"/>
-        <v>0.68137499999999995</v>
+        <v>0.95765987350667603</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="11"/>
-        <v>0.667875</v>
+        <v>0.93868587491215738</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="12"/>
-        <v>0.68224999999999991</v>
+        <v>0.95888966971187628</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="15">
+        <v>3312</v>
+      </c>
+      <c r="L31" s="15">
+        <v>3828</v>
+      </c>
+      <c r="M31" s="21">
+        <v>3929</v>
+      </c>
+      <c r="N31" s="15">
+        <v>4193</v>
+      </c>
+      <c r="O31" s="15">
+        <v>3264</v>
+      </c>
+      <c r="P31" s="15">
+        <v>4606</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -10213,22 +11938,43 @@
       </c>
       <c r="E32" s="1">
         <f t="shared" si="9"/>
-        <v>0.85787310814874207</v>
+        <v>1.2348867407300534</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="10"/>
-        <v>0.84694798035481611</v>
+        <v>1.2191602943298225</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="11"/>
-        <v>0.83020948180815879</v>
+        <v>1.1950656470927716</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="12"/>
-        <v>0.84501019010390566</v>
+        <v>1.2163708940508826</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="15">
+        <v>4999</v>
+      </c>
+      <c r="L32" s="15">
+        <v>5694</v>
+      </c>
+      <c r="M32" s="15">
+        <v>5990</v>
+      </c>
+      <c r="N32" s="15">
+        <v>6345</v>
+      </c>
+      <c r="O32" s="15">
+        <v>4825</v>
+      </c>
+      <c r="P32" s="15">
+        <v>6892</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>6</v>
       </c>
@@ -10243,22 +11989,43 @@
       </c>
       <c r="E33" s="1">
         <f t="shared" si="9"/>
-        <v>0.91883080382237214</v>
+        <v>1.3763893566857528</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="10"/>
-        <v>0.90534007869589661</v>
+        <v>1.3561805321657123</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="11"/>
-        <v>0.88611579539066887</v>
+        <v>1.3273829572246547</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="12"/>
-        <v>0.90342889263631265</v>
+        <v>1.3533176153587068</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="15">
+        <v>4895</v>
+      </c>
+      <c r="L33" s="15">
+        <v>5452</v>
+      </c>
+      <c r="M33" s="15">
+        <v>5762</v>
+      </c>
+      <c r="N33" s="15">
+        <v>6056</v>
+      </c>
+      <c r="O33" s="15">
+        <v>4764</v>
+      </c>
+      <c r="P33" s="15">
+        <v>6324</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>7</v>
       </c>
@@ -10273,22 +12040,46 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" si="9"/>
-        <v>0.89557497181510715</v>
+        <v>1.4622641509433962</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="10"/>
-        <v>0.89303833145434053</v>
+        <v>1.4581224114127933</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="11"/>
-        <v>0.87683201803833144</v>
+        <v>1.4316612977450529</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="12"/>
-        <v>0.88848177376925974</v>
+        <v>1.4506826200337475</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="15">
+        <v>3867</v>
+      </c>
+      <c r="L34" s="15">
+        <v>4188</v>
+      </c>
+      <c r="M34" s="15">
+        <v>4373</v>
+      </c>
+      <c r="N34" s="15">
+        <v>4541</v>
+      </c>
+      <c r="O34" s="15">
+        <v>3762</v>
+      </c>
+      <c r="P34" s="15">
+        <v>4673</v>
+      </c>
+      <c r="R34" s="18" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>8</v>
       </c>
@@ -10303,22 +12094,43 @@
       </c>
       <c r="E35" s="1">
         <f t="shared" si="9"/>
-        <v>0.86956521739130432</v>
+        <v>1.6027345233573871</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="10"/>
-        <v>0.87595301875128784</v>
+        <v>1.6145081655905811</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="11"/>
-        <v>0.84978363898619413</v>
+        <v>1.5662742119255602</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="12"/>
-        <v>0.86510062504292884</v>
+        <v>1.5945056336245094</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="15">
+        <v>2341</v>
+      </c>
+      <c r="L35" s="15">
+        <v>2517</v>
+      </c>
+      <c r="M35" s="15">
+        <v>2670</v>
+      </c>
+      <c r="N35" s="15">
+        <v>2671</v>
+      </c>
+      <c r="O35" s="15">
+        <v>2319</v>
+      </c>
+      <c r="P35" s="15">
+        <v>2667</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>9</v>
       </c>
@@ -10333,22 +12145,43 @@
       </c>
       <c r="E36" s="1">
         <f t="shared" si="9"/>
-        <v>0.69341974077766699</v>
+        <v>1.1369687062120504</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="10"/>
-        <v>0.67981768978777957</v>
+        <v>1.1146660439047174</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="11"/>
-        <v>0.65645919384703033</v>
+        <v>1.076366184026156</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="12"/>
-        <v>0.67656554147082559</v>
+        <v>1.1093336447143081</v>
+      </c>
+      <c r="J36" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="15">
+        <v>10113</v>
+      </c>
+      <c r="L36" s="15">
+        <v>11429</v>
+      </c>
+      <c r="M36" s="15">
+        <v>12009</v>
+      </c>
+      <c r="N36" s="15">
+        <v>12667</v>
+      </c>
+      <c r="O36" s="15">
+        <v>9753</v>
+      </c>
+      <c r="P36" s="15">
+        <v>12885</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>10</v>
       </c>
@@ -10363,22 +12196,61 @@
       </c>
       <c r="E37" s="1">
         <f t="shared" si="9"/>
-        <v>0.61904761904761907</v>
+        <v>3.0555555555555554</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="10"/>
-        <v>0.60779220779220777</v>
+        <v>3</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="11"/>
-        <v>0.53593073593073592</v>
+        <v>2.6452991452991452</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="12"/>
-        <v>0.58759018759018755</v>
+        <v>2.9002849002849</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="15">
+        <v>744</v>
+      </c>
+      <c r="L37" s="15">
+        <v>804</v>
+      </c>
+      <c r="M37" s="15">
+        <v>858</v>
+      </c>
+      <c r="N37" s="15">
+        <v>888</v>
+      </c>
+      <c r="O37" s="15">
+        <v>710</v>
+      </c>
+      <c r="P37" s="15">
+        <v>862</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -10403,8 +12275,29 @@
       <c r="H40" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="J40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O40" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="P40" s="15" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>1</v>
       </c>
@@ -10419,22 +12312,49 @@
       </c>
       <c r="E41" s="1">
         <f>B41/J2</f>
-        <v>0.57757009345794397</v>
+        <v>0.9196428571428571</v>
       </c>
       <c r="F41" s="1">
         <f>C41/J2</f>
-        <v>0.55046728971962622</v>
+        <v>0.87648809523809523</v>
       </c>
       <c r="G41" s="1">
         <f>D41/J2</f>
-        <v>0.53411214953271025</v>
+        <v>0.8504464285714286</v>
       </c>
       <c r="H41" s="1">
         <f>AVERAGE(E41:G41)</f>
-        <v>0.55404984423676007</v>
+        <v>0.88219246031746035</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" s="15">
+        <f>K28/J2</f>
+        <v>0.43154761904761907</v>
+      </c>
+      <c r="L41" s="15">
+        <f>L28/J2</f>
+        <v>0.51488095238095233</v>
+      </c>
+      <c r="M41" s="15">
+        <f>M28/J2</f>
+        <v>0.53125</v>
+      </c>
+      <c r="N41" s="15">
+        <f>N28/J2</f>
+        <v>0.5602678571428571</v>
+      </c>
+      <c r="O41" s="15">
+        <f>O28/J2</f>
+        <v>0.42336309523809523</v>
+      </c>
+      <c r="P41" s="15">
+        <f>P28/J2</f>
+        <v>0.62351190476190477</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -10449,22 +12369,49 @@
       </c>
       <c r="E42" s="1">
         <f t="shared" ref="E42:E50" si="13">B42/J3</f>
-        <v>0.54948026704977604</v>
+        <v>0.72761862130707256</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" ref="F42:F50" si="14">C42/J3</f>
-        <v>0.51542296966111723</v>
+        <v>0.68252014324082366</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" ref="G42:G50" si="15">D42/J3</f>
-        <v>0.49945068875179582</v>
+        <v>0.66136974037600715</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" ref="H42:H50" si="16">AVERAGE(E42:G42)</f>
-        <v>0.52145130848756305</v>
+        <v>0.69050283497463438</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K42" s="15">
+        <f t="shared" ref="K42:K50" si="17">K29/J3</f>
+        <v>0.32553715308863024</v>
+      </c>
+      <c r="L42" s="15">
+        <f t="shared" ref="L42:L50" si="18">L29/J3</f>
+        <v>0.40107430617726053</v>
+      </c>
+      <c r="M42" s="15">
+        <f t="shared" ref="M42:M50" si="19">M29/J3</f>
+        <v>0.40376007162041183</v>
+      </c>
+      <c r="N42" s="15">
+        <f t="shared" ref="N42:N50" si="20">N29/J3</f>
+        <v>0.43296777081468218</v>
+      </c>
+      <c r="O42" s="15">
+        <f t="shared" ref="O42:O50" si="21">O29/J3</f>
+        <v>0.32072515666965085</v>
+      </c>
+      <c r="P42" s="15">
+        <f t="shared" ref="P42:P50" si="22">P29/J3</f>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>3</v>
       </c>
@@ -10479,22 +12426,49 @@
       </c>
       <c r="E43" s="1">
         <f t="shared" si="13"/>
-        <v>0.66916815059781232</v>
+        <v>0.83349176172370087</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="14"/>
-        <v>0.63889595522767739</v>
+        <v>0.79578580481622307</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="15"/>
-        <v>0.62490460442635465</v>
+        <v>0.77835868187579216</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="16"/>
-        <v>0.64432290341728138</v>
+        <v>0.802545416138572</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="15">
+        <f t="shared" si="17"/>
+        <v>0.44597591888466415</v>
+      </c>
+      <c r="L43" s="15">
+        <f t="shared" si="18"/>
+        <v>0.50998098859315588</v>
+      </c>
+      <c r="M43" s="15">
+        <f t="shared" si="19"/>
+        <v>0.51853612167300378</v>
+      </c>
+      <c r="N43" s="15">
+        <f t="shared" si="20"/>
+        <v>0.53279467680608361</v>
+      </c>
+      <c r="O43" s="15">
+        <f t="shared" si="21"/>
+        <v>0.45373891001267425</v>
+      </c>
+      <c r="P43" s="15">
+        <f t="shared" si="22"/>
+        <v>0.58602661596958172</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>4</v>
       </c>
@@ -10509,22 +12483,49 @@
       </c>
       <c r="E44" s="1">
         <f t="shared" si="13"/>
-        <v>0.80537499999999995</v>
+        <v>1.131939564300773</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="14"/>
-        <v>0.76337500000000003</v>
+        <v>1.0729093464511594</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="15"/>
-        <v>0.74262499999999998</v>
+        <v>1.0437456078706957</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="16"/>
-        <v>0.77045833333333336</v>
+        <v>1.082864839540876</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="15">
+        <f t="shared" si="17"/>
+        <v>0.58186929023190448</v>
+      </c>
+      <c r="L44" s="15">
+        <f t="shared" si="18"/>
+        <v>0.67252283907238231</v>
+      </c>
+      <c r="M44" s="15">
+        <f t="shared" si="19"/>
+        <v>0.69026704146170059</v>
+      </c>
+      <c r="N44" s="15">
+        <f t="shared" si="20"/>
+        <v>0.73664792691496839</v>
+      </c>
+      <c r="O44" s="15">
+        <f t="shared" si="21"/>
+        <v>0.57343640196767398</v>
+      </c>
+      <c r="P44" s="15">
+        <f t="shared" si="22"/>
+        <v>0.80920590302178497</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>5</v>
       </c>
@@ -10539,22 +12540,49 @@
       </c>
       <c r="E45" s="1">
         <f t="shared" si="13"/>
-        <v>1.000601383181317</v>
+        <v>1.4403404992064637</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="14"/>
-        <v>0.95118773178310112</v>
+        <v>1.3692107920934931</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="15"/>
-        <v>0.92382479703317633</v>
+        <v>1.3298225364305296</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="16"/>
-        <v>0.95853797066586477</v>
+        <v>1.379791275910162</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="15">
+        <f t="shared" si="17"/>
+        <v>0.72125234453902753</v>
+      </c>
+      <c r="L45" s="15">
+        <f t="shared" si="18"/>
+        <v>0.82152647525609579</v>
+      </c>
+      <c r="M45" s="15">
+        <f t="shared" si="19"/>
+        <v>0.86423315538883283</v>
+      </c>
+      <c r="N45" s="15">
+        <f t="shared" si="20"/>
+        <v>0.91545231568316265</v>
+      </c>
+      <c r="O45" s="15">
+        <f t="shared" si="21"/>
+        <v>0.69614774202856733</v>
+      </c>
+      <c r="P45" s="15">
+        <f t="shared" si="22"/>
+        <v>0.99437310633386233</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>6</v>
       </c>
@@ -10569,22 +12597,49 @@
       </c>
       <c r="E46" s="1">
         <f t="shared" si="13"/>
-        <v>1.0451939291736931</v>
+        <v>1.5656786796901314</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="14"/>
-        <v>0.99977515458122546</v>
+        <v>1.4976423038059954</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="15"/>
-        <v>0.97245643620011246</v>
+        <v>1.4567194341529135</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="16"/>
-        <v>1.0058085066516771</v>
+        <v>1.5066801392163469</v>
+      </c>
+      <c r="J46" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K46" s="15">
+        <f t="shared" si="17"/>
+        <v>0.82435163354664875</v>
+      </c>
+      <c r="L46" s="15">
+        <f t="shared" si="18"/>
+        <v>0.91815426069383632</v>
+      </c>
+      <c r="M46" s="15">
+        <f t="shared" si="19"/>
+        <v>0.97036039070394076</v>
+      </c>
+      <c r="N46" s="15">
+        <f t="shared" si="20"/>
+        <v>1.0198720107780397</v>
+      </c>
+      <c r="O46" s="15">
+        <f t="shared" si="21"/>
+        <v>0.80229033344560463</v>
+      </c>
+      <c r="P46" s="15">
+        <f t="shared" si="22"/>
+        <v>1.0650050522061301</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>7</v>
       </c>
@@ -10599,22 +12654,49 @@
       </c>
       <c r="E47" s="1">
         <f t="shared" si="13"/>
-        <v>1.0023957158962795</v>
+        <v>1.6366774045098942</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="14"/>
-        <v>0.96801014656144302</v>
+        <v>1.5805338242061666</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="15"/>
-        <v>0.94954904171364152</v>
+        <v>1.5503911642890014</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="16"/>
-        <v>0.97331830139045472</v>
+        <v>1.5892007976683542</v>
+      </c>
+      <c r="J47" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" s="15">
+        <f t="shared" si="17"/>
+        <v>0.88978370915784633</v>
+      </c>
+      <c r="L47" s="15">
+        <f t="shared" si="18"/>
+        <v>0.96364473078693047</v>
+      </c>
+      <c r="M47" s="15">
+        <f t="shared" si="19"/>
+        <v>1.0062126092959043</v>
+      </c>
+      <c r="N47" s="15">
+        <f t="shared" si="20"/>
+        <v>1.0448688449148642</v>
+      </c>
+      <c r="O47" s="15">
+        <f t="shared" si="21"/>
+        <v>0.86562356189599632</v>
+      </c>
+      <c r="P47" s="15">
+        <f t="shared" si="22"/>
+        <v>1.0752416014726185</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>8</v>
       </c>
@@ -10629,22 +12711,49 @@
       </c>
       <c r="E48" s="1">
         <f t="shared" si="13"/>
-        <v>0.93735833505048427</v>
+        <v>1.7276870489935434</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="14"/>
-        <v>0.92664331341438289</v>
+        <v>1.7079377136346372</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="15"/>
-        <v>0.89779517824026378</v>
+        <v>1.6547664261298898</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="16"/>
-        <v>0.92059894223504368</v>
+        <v>1.6967970629193569</v>
+      </c>
+      <c r="J48" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="15">
+        <f t="shared" si="17"/>
+        <v>0.88909988606152679</v>
+      </c>
+      <c r="L48" s="15">
+        <f t="shared" si="18"/>
+        <v>0.95594379035320931</v>
+      </c>
+      <c r="M48" s="15">
+        <f t="shared" si="19"/>
+        <v>1.0140524116976832</v>
+      </c>
+      <c r="N48" s="15">
+        <f t="shared" si="20"/>
+        <v>1.0144322066084315</v>
+      </c>
+      <c r="O48" s="15">
+        <f t="shared" si="21"/>
+        <v>0.88074439802506643</v>
+      </c>
+      <c r="P48" s="15">
+        <f t="shared" si="22"/>
+        <v>1.0129130269654387</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>9</v>
       </c>
@@ -10659,22 +12768,49 @@
       </c>
       <c r="E49" s="1">
         <f t="shared" si="13"/>
-        <v>0.76566728386269767</v>
+        <v>1.255429705744979</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="14"/>
-        <v>0.72247543085030619</v>
+        <v>1.1846099953292855</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="15"/>
-        <v>0.68957413473864126</v>
+        <v>1.1306632414759459</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="16"/>
-        <v>0.72590561648388174</v>
+        <v>1.1902343141834033</v>
+      </c>
+      <c r="J49" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="15">
+        <f t="shared" si="17"/>
+        <v>0.59043671181690793</v>
+      </c>
+      <c r="L49" s="15">
+        <f t="shared" si="18"/>
+        <v>0.66726996730499766</v>
+      </c>
+      <c r="M49" s="15">
+        <f t="shared" si="19"/>
+        <v>0.70113264829518918</v>
+      </c>
+      <c r="N49" s="15">
+        <f t="shared" si="20"/>
+        <v>0.73954927603923404</v>
+      </c>
+      <c r="O49" s="15">
+        <f t="shared" si="21"/>
+        <v>0.56941849602989258</v>
+      </c>
+      <c r="P49" s="15">
+        <f t="shared" si="22"/>
+        <v>0.75227697337692667</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>10</v>
       </c>
@@ -10689,22 +12825,49 @@
       </c>
       <c r="E50" s="1">
         <f t="shared" si="13"/>
-        <v>0.52857142857142858</v>
+        <v>2.608974358974359</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="14"/>
-        <v>0.59610389610389614</v>
+        <v>2.9423076923076925</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="15"/>
-        <v>0.56406926406926405</v>
+        <v>2.7841880341880341</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="16"/>
-        <v>0.56291486291486292</v>
+        <v>2.7784900284900282</v>
+      </c>
+      <c r="J50" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" s="15">
+        <f t="shared" si="17"/>
+        <v>0.79487179487179482</v>
+      </c>
+      <c r="L50" s="15">
+        <f t="shared" si="18"/>
+        <v>0.85897435897435892</v>
+      </c>
+      <c r="M50" s="15">
+        <f t="shared" si="19"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="N50" s="15">
+        <f t="shared" si="20"/>
+        <v>0.94871794871794868</v>
+      </c>
+      <c r="O50" s="15">
+        <f t="shared" si="21"/>
+        <v>0.75854700854700852</v>
+      </c>
+      <c r="P50" s="15">
+        <f t="shared" si="22"/>
+        <v>0.92094017094017089</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>44</v>
       </c>
@@ -10715,7 +12878,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>1</v>
       </c>
@@ -10724,10 +12887,10 @@
       </c>
       <c r="C54" s="1">
         <f>B54/J2</f>
-        <v>0.49766355140186919</v>
+        <v>0.7924107142857143</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>2</v>
       </c>
@@ -10735,11 +12898,11 @@
         <v>5575</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" ref="C55:C63" si="17">B55/J3</f>
-        <v>0.47114003211358069</v>
+        <f t="shared" ref="C55:C63" si="23">B55/J3</f>
+        <v>0.62388093106535358</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>3</v>
       </c>
@@ -10747,11 +12910,11 @@
         <v>5121</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="17"/>
-        <v>0.65136097685067418</v>
+        <f t="shared" si="23"/>
+        <v>0.81131178707224338</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>4</v>
       </c>
@@ -10759,11 +12922,11 @@
         <v>5968</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="17"/>
-        <v>0.746</v>
+        <f t="shared" si="23"/>
+        <v>1.0484891075193254</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>5</v>
       </c>
@@ -10771,11 +12934,11 @@
         <v>8980</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="17"/>
-        <v>0.9000701613711537</v>
+        <f t="shared" si="23"/>
+        <v>1.2956283364593855</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>6</v>
       </c>
@@ -10783,11 +12946,11 @@
         <v>8783</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="17"/>
-        <v>0.98740865654862287</v>
+        <f t="shared" si="23"/>
+        <v>1.4791175479959582</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>7</v>
       </c>
@@ -10795,11 +12958,11 @@
         <v>6966</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="17"/>
-        <v>0.98167981961668549</v>
+        <f t="shared" si="23"/>
+        <v>1.6028531983433041</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>8</v>
       </c>
@@ -10807,11 +12970,11 @@
         <v>4538</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="17"/>
-        <v>0.93509169585823204</v>
+        <f t="shared" si="23"/>
+        <v>1.7235093049753134</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>9</v>
       </c>
@@ -10819,11 +12982,11 @@
         <v>20230</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="17"/>
-        <v>0.72033898305084743</v>
+        <f t="shared" si="23"/>
+        <v>1.1811069593647827</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>10</v>
       </c>
@@ -10831,11 +12994,11 @@
         <v>2266</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="17"/>
-        <v>0.49047619047619045</v>
+        <f t="shared" si="23"/>
+        <v>2.4209401709401708</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>45</v>
       </c>
@@ -10846,7 +13009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>1</v>
       </c>
@@ -10855,10 +13018,10 @@
       </c>
       <c r="C67" s="1">
         <f>B67/J2</f>
-        <v>0.65794392523364487</v>
+        <v>1.0476190476190477</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
@@ -10866,11 +13029,11 @@
         <v>7553</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" ref="C68:C76" si="18">B68/J3</f>
-        <v>0.63829967041325109</v>
+        <f t="shared" ref="C68:C76" si="24">B68/J3</f>
+        <v>0.84523276633840649</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>3</v>
       </c>
@@ -10878,11 +13041,11 @@
         <v>5828</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="18"/>
-        <v>0.74128720427372174</v>
+        <f t="shared" si="24"/>
+        <v>0.92332065906210392</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
@@ -10890,11 +13053,11 @@
         <v>7344</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="18"/>
-        <v>0.91800000000000004</v>
+        <f t="shared" si="24"/>
+        <v>1.2902319044272663</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>5</v>
       </c>
@@ -10902,11 +13065,11 @@
         <v>11154</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="18"/>
-        <v>1.1179713340683572</v>
+        <f t="shared" si="24"/>
+        <v>1.6092915885153658</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>6</v>
       </c>
@@ -10914,11 +13077,11 @@
         <v>10156</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="18"/>
-        <v>1.1417650365373806</v>
+        <f t="shared" si="24"/>
+        <v>1.7103401818794206</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>7</v>
       </c>
@@ -10926,11 +13089,11 @@
         <v>7547</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="18"/>
-        <v>1.0635569334836528</v>
+        <f t="shared" si="24"/>
+        <v>1.7365393465255408</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>8</v>
       </c>
@@ -10938,11 +13101,11 @@
         <v>4683</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="18"/>
-        <v>0.96497012157428397</v>
+        <f t="shared" si="24"/>
+        <v>1.7785795670338018</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>9</v>
       </c>
@@ -10950,11 +13113,11 @@
         <v>22662</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="18"/>
-        <v>0.80693633385557617</v>
+        <f t="shared" si="24"/>
+        <v>1.3230966837926204</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>10</v>
       </c>
@@ -10962,8 +13125,8 @@
         <v>2722</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="18"/>
-        <v>0.58917748917748913</v>
+        <f t="shared" si="24"/>
+        <v>2.908119658119658</v>
       </c>
     </row>
   </sheetData>
